--- a/EFFECTIFS_CAMPUS.xlsx
+++ b/EFFECTIFS_CAMPUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\PycharmProjects\chenapandas_data_viz\ChenapandasProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87274054-92FF-4E71-B69E-D002DF872392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBE2D0D-40FC-46D5-A4C1-BD286F53C3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ISG_Lille" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ISG_Lyon!$A$1:$L$91</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ISG_Paris!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ISG_Strasbourg!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">ISG_Toulouse!$A$1:$H$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">ISG_Toulouse!$A$1:$I$47</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -27896,7 +27896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12:G16"/>
     </sheetView>
   </sheetViews>
@@ -41894,7 +41894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M348"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -51078,1411 +51078,1466 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K344"/>
+  <dimension ref="A1:L344"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" customWidth="1"/>
-    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="17"/>
+    <col min="3" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" customWidth="1"/>
+    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="17"/>
+      <c r="K1" s="65" t="s">
         <v>421</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="L1" s="65" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5">
+    <row r="2" spans="1:12" ht="16.5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>2156</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2157</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2158</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="161" t="s">
-        <v>2159</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="161" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>2160</v>
       </c>
-      <c r="H2" s="161" t="s">
+      <c r="I2" s="161" t="s">
         <v>2161</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="17"/>
+      <c r="K2" s="31" t="s">
         <v>2161</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="L2" s="31" t="s">
         <v>2162</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5">
+    <row r="3" spans="1:12" ht="16.5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>2163</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>2164</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="161" t="s">
+      <c r="G3" s="161" t="s">
         <v>2159</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>2160</v>
       </c>
-      <c r="H3" s="161"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="31" t="s">
+      <c r="I3" s="161"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="31" t="s">
         <v>2165</v>
       </c>
-      <c r="K3" s="63" t="s">
+      <c r="L3" s="63" t="s">
         <v>2166</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5">
+    <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>2167</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>2168</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>2169</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="161" t="s">
+      <c r="G4" s="161" t="s">
         <v>2159</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>2160</v>
       </c>
-      <c r="H4" s="161"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="31" t="s">
+      <c r="I4" s="161"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="31" t="s">
         <v>2170</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="L4" s="80" t="s">
         <v>2171</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5">
+    <row r="5" spans="1:12" ht="16.5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>2172</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>2173</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="161" t="s">
+      <c r="G5" s="161" t="s">
         <v>2159</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>2160</v>
       </c>
-      <c r="H5" s="161"/>
-      <c r="I5" s="17"/>
+      <c r="I5" s="161"/>
       <c r="J5" s="17"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5">
+      <c r="K5" s="17"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="16.5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>2174</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>2175</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="161" t="s">
+      <c r="G6" s="161" t="s">
         <v>2159</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>2160</v>
       </c>
-      <c r="H6" s="161"/>
-      <c r="I6" s="17"/>
+      <c r="I6" s="161"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5">
+      <c r="K6" s="17"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="16.5">
       <c r="A7" s="78">
         <v>6</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="78"/>
+      <c r="C7" s="56" t="s">
         <v>2176</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="D7" s="56" t="s">
         <v>1673</v>
       </c>
-      <c r="D7" s="78" t="s">
+      <c r="E7" s="78" t="s">
         <v>2177</v>
       </c>
-      <c r="E7" s="78">
+      <c r="F7" s="78">
         <v>2</v>
       </c>
-      <c r="F7" s="78" t="s">
-        <v>464</v>
-      </c>
-      <c r="G7" s="79" t="s">
+      <c r="G7" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="79" t="s">
         <v>2178</v>
       </c>
-      <c r="H7" s="194" t="s">
+      <c r="I7" s="194" t="s">
         <v>2165</v>
       </c>
-      <c r="I7" s="17"/>
       <c r="J7" s="17"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5">
+      <c r="K7" s="17"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="16.5">
       <c r="A8" s="78">
         <v>7</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="78" t="s">
         <v>2179</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="D8" s="78" t="s">
         <v>354</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="E8" s="78" t="s">
         <v>2180</v>
       </c>
-      <c r="E8" s="78">
+      <c r="F8" s="78">
         <v>2</v>
       </c>
-      <c r="F8" s="78" t="s">
-        <v>464</v>
-      </c>
-      <c r="G8" s="79" t="s">
+      <c r="G8" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="79" t="s">
         <v>2178</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="17"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="17"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5">
+      <c r="K8" s="17"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.5">
       <c r="A9" s="78">
         <v>8</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="78"/>
+      <c r="C9" s="78" t="s">
         <v>2181</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="D9" s="78" t="s">
         <v>2182</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="E9" s="78" t="s">
         <v>2183</v>
       </c>
-      <c r="E9" s="78">
+      <c r="F9" s="78">
         <v>2</v>
       </c>
-      <c r="F9" s="78" t="s">
-        <v>464</v>
-      </c>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="79" t="s">
         <v>2178</v>
       </c>
-      <c r="H9" s="194"/>
-      <c r="I9" s="17"/>
+      <c r="I9" s="194"/>
       <c r="J9" s="17"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5">
+      <c r="K9" s="17"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="16.5">
       <c r="A10" s="78">
         <v>9</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="78"/>
+      <c r="C10" s="78" t="s">
         <v>2184</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="D10" s="78" t="s">
         <v>2185</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="E10" s="78" t="s">
         <v>2186</v>
       </c>
-      <c r="E10" s="78">
+      <c r="F10" s="78">
         <v>2</v>
       </c>
-      <c r="F10" s="78" t="s">
-        <v>464</v>
-      </c>
-      <c r="G10" s="79" t="s">
+      <c r="G10" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="79" t="s">
         <v>2178</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="17"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="17"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5">
+      <c r="K10" s="17"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5">
       <c r="A11" s="78">
         <v>10</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="78"/>
+      <c r="C11" s="78" t="s">
         <v>2187</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="D11" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="E11" s="79" t="s">
         <v>2188</v>
       </c>
-      <c r="E11" s="78">
+      <c r="F11" s="78">
         <v>2</v>
       </c>
-      <c r="F11" s="78" t="s">
-        <v>464</v>
-      </c>
-      <c r="G11" s="79" t="s">
+      <c r="G11" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="79" t="s">
         <v>2178</v>
       </c>
-      <c r="H11" s="194"/>
-      <c r="I11" s="17"/>
+      <c r="I11" s="194"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" ht="16.5">
+      <c r="K11" s="17"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="17" t="s">
         <v>2189</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="D12" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>2190</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>3</v>
       </c>
-      <c r="F12" s="161" t="s">
+      <c r="G12" s="161" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="H12" s="10" t="s">
         <v>2160</v>
       </c>
-      <c r="H12" s="161" t="s">
+      <c r="I12" s="161" t="s">
         <v>2161</v>
       </c>
-      <c r="I12" s="17"/>
       <c r="J12" s="17"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" ht="16.5">
+      <c r="K12" s="17"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.5">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
         <v>2191</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>2192</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>3</v>
       </c>
-      <c r="F13" s="161" t="s">
+      <c r="G13" s="161" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="H13" s="10" t="s">
         <v>2160</v>
       </c>
-      <c r="H13" s="161"/>
-      <c r="I13" s="17"/>
+      <c r="I13" s="161"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5">
+      <c r="K13" s="17"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="16.5">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
         <v>2193</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>2194</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>2195</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>3</v>
       </c>
-      <c r="F14" s="161" t="s">
+      <c r="G14" s="161" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="H14" s="10" t="s">
         <v>2160</v>
       </c>
-      <c r="H14" s="161"/>
-      <c r="I14" s="17"/>
+      <c r="I14" s="161"/>
       <c r="J14" s="17"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5">
+      <c r="K14" s="17"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.5">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
         <v>2196</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>2197</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>3</v>
       </c>
-      <c r="F15" s="161" t="s">
+      <c r="G15" s="161" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>2160</v>
       </c>
-      <c r="H15" s="161"/>
-      <c r="I15" s="17"/>
+      <c r="I15" s="161"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
-    </row>
-    <row r="16" spans="1:11" ht="16.5">
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="1:12" ht="16.5">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
         <v>2198</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>2199</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="E16" s="10" t="s">
         <v>2200</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>3</v>
       </c>
-      <c r="F16" s="161" t="s">
+      <c r="G16" s="161" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="H16" s="10" t="s">
         <v>2160</v>
       </c>
-      <c r="H16" s="161"/>
-      <c r="I16" s="17"/>
+      <c r="I16" s="161"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="1:8" ht="16.5">
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="78">
         <v>16</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="78"/>
+      <c r="C17" s="56" t="s">
         <v>2201</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="D17" s="56" t="s">
         <v>2202</v>
       </c>
-      <c r="D17" s="78" t="s">
+      <c r="E17" s="78" t="s">
         <v>2203</v>
       </c>
-      <c r="E17" s="78">
+      <c r="F17" s="78">
         <v>4</v>
       </c>
-      <c r="F17" s="194" t="s">
+      <c r="G17" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="79" t="s">
+      <c r="H17" s="79" t="s">
         <v>2204</v>
       </c>
-      <c r="H17" s="194" t="s">
+      <c r="I17" s="194" t="s">
         <v>2165</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="78">
         <v>17</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="78"/>
+      <c r="C18" s="78" t="s">
         <v>2205</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="D18" s="78" t="s">
         <v>2206</v>
       </c>
-      <c r="D18" s="78" t="s">
+      <c r="E18" s="78" t="s">
         <v>2207</v>
       </c>
-      <c r="E18" s="78">
+      <c r="F18" s="78">
         <v>4</v>
       </c>
-      <c r="F18" s="194" t="s">
+      <c r="G18" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="79" t="s">
+      <c r="H18" s="79" t="s">
         <v>2204</v>
       </c>
-      <c r="H18" s="194"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.5">
+      <c r="I18" s="194"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="78">
         <v>18</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="78"/>
+      <c r="C19" s="78" t="s">
         <v>2208</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="D19" s="78" t="s">
         <v>603</v>
       </c>
-      <c r="D19" s="78" t="s">
+      <c r="E19" s="78" t="s">
         <v>2209</v>
       </c>
-      <c r="E19" s="78">
+      <c r="F19" s="78">
         <v>4</v>
       </c>
-      <c r="F19" s="194" t="s">
+      <c r="G19" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="79" t="s">
+      <c r="H19" s="79" t="s">
         <v>2204</v>
       </c>
-      <c r="H19" s="194"/>
-    </row>
-    <row r="20" spans="1:8" ht="16.5">
+      <c r="I19" s="194"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="78">
         <v>19</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="78"/>
+      <c r="C20" s="78" t="s">
         <v>2210</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="D20" s="78" t="s">
         <v>512</v>
       </c>
-      <c r="D20" s="78" t="s">
+      <c r="E20" s="78" t="s">
         <v>2211</v>
       </c>
-      <c r="E20" s="78">
+      <c r="F20" s="78">
         <v>4</v>
       </c>
-      <c r="F20" s="194" t="s">
+      <c r="G20" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="79" t="s">
+      <c r="H20" s="79" t="s">
         <v>2204</v>
       </c>
-      <c r="H20" s="194"/>
-    </row>
-    <row r="21" spans="1:8" ht="16.5">
+      <c r="I20" s="194"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.5">
       <c r="A21" s="78">
         <v>20</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="78"/>
+      <c r="C21" s="78" t="s">
         <v>2212</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="D21" s="78" t="s">
         <v>2213</v>
       </c>
-      <c r="D21" s="79" t="s">
+      <c r="E21" s="79" t="s">
         <v>2214</v>
       </c>
-      <c r="E21" s="78">
+      <c r="F21" s="78">
         <v>4</v>
       </c>
-      <c r="F21" s="194" t="s">
+      <c r="G21" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="79" t="s">
+      <c r="H21" s="79" t="s">
         <v>2204</v>
       </c>
-      <c r="H21" s="194"/>
-    </row>
-    <row r="22" spans="1:8" ht="16.5">
+      <c r="I21" s="194"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
         <v>2215</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>1850</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>2216</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>5</v>
       </c>
-      <c r="F22" s="161" t="s">
+      <c r="G22" s="161" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="H22" s="10" t="s">
         <v>2160</v>
       </c>
-      <c r="H22" s="161" t="s">
+      <c r="I22" s="161" t="s">
         <v>2161</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:9" ht="16.5">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
         <v>2217</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>2218</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>5</v>
       </c>
-      <c r="F23" s="161" t="s">
+      <c r="G23" s="161" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="H23" s="10" t="s">
         <v>2160</v>
       </c>
-      <c r="H23" s="161"/>
-    </row>
-    <row r="24" spans="1:8" ht="16.5">
+      <c r="I23" s="161"/>
+    </row>
+    <row r="24" spans="1:9" ht="16.5">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
         <v>2219</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>2220</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>2221</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>5</v>
       </c>
-      <c r="F24" s="161" t="s">
+      <c r="G24" s="161" t="s">
         <v>103</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="H24" s="10" t="s">
         <v>2160</v>
       </c>
-      <c r="H24" s="161"/>
-    </row>
-    <row r="25" spans="1:8" ht="16.5">
+      <c r="I24" s="161"/>
+    </row>
+    <row r="25" spans="1:9" ht="16.5">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
         <v>2222</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>2223</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="E25" s="10" t="s">
         <v>2224</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>5</v>
       </c>
-      <c r="F25" s="195" t="s">
+      <c r="G25" s="195" t="s">
         <v>103</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="H25" s="10" t="s">
         <v>2160</v>
       </c>
-      <c r="H25" s="195"/>
-    </row>
-    <row r="26" spans="1:8" ht="16.5">
+      <c r="I25" s="195"/>
+    </row>
+    <row r="26" spans="1:9" ht="16.5">
       <c r="A26" s="78">
         <v>25</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="78"/>
+      <c r="C26" s="78" t="s">
         <v>2225</v>
       </c>
-      <c r="C26" s="78" t="s">
+      <c r="D26" s="78" t="s">
         <v>2226</v>
       </c>
-      <c r="D26" s="78" t="s">
+      <c r="E26" s="78" t="s">
         <v>2227</v>
       </c>
-      <c r="E26" s="78">
+      <c r="F26" s="78">
         <v>6</v>
       </c>
-      <c r="F26" s="196" t="s">
+      <c r="G26" s="196" t="s">
         <v>134</v>
       </c>
-      <c r="G26" s="79" t="s">
+      <c r="H26" s="79" t="s">
         <v>2178</v>
       </c>
-      <c r="H26" s="196" t="s">
+      <c r="I26" s="196" t="s">
         <v>2170</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:9" ht="16.5">
       <c r="A27" s="78">
         <v>26</v>
       </c>
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="78"/>
+      <c r="C27" s="78" t="s">
         <v>2228</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="D27" s="78" t="s">
         <v>930</v>
       </c>
-      <c r="D27" s="78" t="s">
+      <c r="E27" s="78" t="s">
         <v>2229</v>
       </c>
-      <c r="E27" s="78">
+      <c r="F27" s="78">
         <v>6</v>
       </c>
-      <c r="F27" s="197" t="s">
+      <c r="G27" s="197" t="s">
         <v>134</v>
       </c>
-      <c r="G27" s="79" t="s">
+      <c r="H27" s="79" t="s">
         <v>2178</v>
       </c>
-      <c r="H27" s="197"/>
-    </row>
-    <row r="28" spans="1:8" ht="16.5">
+      <c r="I27" s="197"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.5">
       <c r="A28" s="78">
         <v>27</v>
       </c>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="78"/>
+      <c r="C28" s="78" t="s">
         <v>2230</v>
       </c>
-      <c r="C28" s="78" t="s">
+      <c r="D28" s="78" t="s">
         <v>249</v>
       </c>
-      <c r="D28" s="78" t="s">
+      <c r="E28" s="78" t="s">
         <v>2231</v>
       </c>
-      <c r="E28" s="78">
+      <c r="F28" s="78">
         <v>6</v>
       </c>
-      <c r="F28" s="197" t="s">
+      <c r="G28" s="197" t="s">
         <v>134</v>
       </c>
-      <c r="G28" s="79" t="s">
+      <c r="H28" s="79" t="s">
         <v>2178</v>
       </c>
-      <c r="H28" s="197"/>
-    </row>
-    <row r="29" spans="1:8" ht="16.5">
+      <c r="I28" s="197"/>
+    </row>
+    <row r="29" spans="1:9" ht="16.5">
       <c r="A29" s="78">
         <v>28</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="78"/>
+      <c r="C29" s="78" t="s">
         <v>2232</v>
       </c>
-      <c r="C29" s="78" t="s">
+      <c r="D29" s="78" t="s">
         <v>2233</v>
       </c>
-      <c r="D29" s="78" t="s">
+      <c r="E29" s="78" t="s">
         <v>2234</v>
       </c>
-      <c r="E29" s="78">
+      <c r="F29" s="78">
         <v>6</v>
       </c>
-      <c r="F29" s="197" t="s">
+      <c r="G29" s="197" t="s">
         <v>134</v>
       </c>
-      <c r="G29" s="79" t="s">
+      <c r="H29" s="79" t="s">
         <v>2178</v>
       </c>
-      <c r="H29" s="197"/>
-    </row>
-    <row r="30" spans="1:8" ht="16.5">
+      <c r="I29" s="197"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.5">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
         <v>2235</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>2236</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>2237</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>7</v>
       </c>
-      <c r="F30" s="161" t="s">
+      <c r="G30" s="161" t="s">
         <v>164</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="H30" s="10" t="s">
         <v>2204</v>
       </c>
-      <c r="H30" s="161" t="s">
+      <c r="I30" s="161" t="s">
         <v>2165</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:9" ht="16.5">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
         <v>2238</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>2239</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>7</v>
       </c>
-      <c r="F31" s="161" t="s">
+      <c r="G31" s="161" t="s">
         <v>164</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="H31" s="10" t="s">
         <v>2204</v>
       </c>
-      <c r="H31" s="161"/>
-    </row>
-    <row r="32" spans="1:8" ht="16.5">
+      <c r="I31" s="161"/>
+    </row>
+    <row r="32" spans="1:9" ht="16.5">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
         <v>2240</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>2241</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>2242</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>7</v>
       </c>
-      <c r="F32" s="161" t="s">
+      <c r="G32" s="161" t="s">
         <v>164</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="H32" s="10" t="s">
         <v>2204</v>
       </c>
-      <c r="H32" s="161"/>
-    </row>
-    <row r="33" spans="1:8" ht="16.5">
+      <c r="I32" s="161"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.5">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
         <v>2243</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>2244</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>2245</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>7</v>
       </c>
-      <c r="F33" s="195" t="s">
+      <c r="G33" s="195" t="s">
         <v>164</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="H33" s="10" t="s">
         <v>2204</v>
       </c>
-      <c r="H33" s="195"/>
-    </row>
-    <row r="34" spans="1:8" ht="16.5">
+      <c r="I33" s="195"/>
+    </row>
+    <row r="34" spans="1:9" ht="16.5">
       <c r="A34" s="78">
         <v>33</v>
       </c>
-      <c r="B34" s="78" t="s">
+      <c r="B34" s="78"/>
+      <c r="C34" s="78" t="s">
         <v>2246</v>
       </c>
-      <c r="C34" s="78" t="s">
+      <c r="D34" s="78" t="s">
         <v>495</v>
       </c>
-      <c r="D34" s="78" t="s">
+      <c r="E34" s="78" t="s">
         <v>2247</v>
       </c>
-      <c r="E34" s="78">
+      <c r="F34" s="78">
         <v>8</v>
       </c>
-      <c r="F34" s="196" t="s">
+      <c r="G34" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="G34" s="79" t="s">
+      <c r="H34" s="79" t="s">
         <v>2178</v>
       </c>
-      <c r="H34" s="196" t="s">
+      <c r="I34" s="196" t="s">
         <v>2170</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16.5">
+    <row r="35" spans="1:9" ht="16.5">
       <c r="A35" s="78">
         <v>34</v>
       </c>
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="78"/>
+      <c r="C35" s="78" t="s">
         <v>2248</v>
       </c>
-      <c r="C35" s="78" t="s">
+      <c r="D35" s="78" t="s">
         <v>2249</v>
       </c>
-      <c r="D35" s="78" t="s">
+      <c r="E35" s="78" t="s">
         <v>2250</v>
       </c>
-      <c r="E35" s="78">
+      <c r="F35" s="78">
         <v>8</v>
       </c>
-      <c r="F35" s="197" t="s">
+      <c r="G35" s="197" t="s">
         <v>223</v>
       </c>
-      <c r="G35" s="79" t="s">
+      <c r="H35" s="79" t="s">
         <v>2178</v>
       </c>
-      <c r="H35" s="197"/>
-    </row>
-    <row r="36" spans="1:8" ht="16.5">
+      <c r="I35" s="197"/>
+    </row>
+    <row r="36" spans="1:9" ht="16.5">
       <c r="A36" s="78">
         <v>35</v>
       </c>
-      <c r="B36" s="78" t="s">
+      <c r="B36" s="78"/>
+      <c r="C36" s="78" t="s">
         <v>2251</v>
       </c>
-      <c r="C36" s="78" t="s">
+      <c r="D36" s="78" t="s">
         <v>2252</v>
       </c>
-      <c r="D36" s="78" t="s">
+      <c r="E36" s="78" t="s">
         <v>2253</v>
       </c>
-      <c r="E36" s="78">
+      <c r="F36" s="78">
         <v>8</v>
       </c>
-      <c r="F36" s="197" t="s">
+      <c r="G36" s="197" t="s">
         <v>223</v>
       </c>
-      <c r="G36" s="79" t="s">
+      <c r="H36" s="79" t="s">
         <v>2178</v>
       </c>
-      <c r="H36" s="197"/>
-    </row>
-    <row r="37" spans="1:8" ht="16.5">
+      <c r="I36" s="197"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.5">
       <c r="A37" s="78">
         <v>36</v>
       </c>
-      <c r="B37" s="78" t="s">
+      <c r="B37" s="78"/>
+      <c r="C37" s="78" t="s">
         <v>2254</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="D37" s="78" t="s">
         <v>2255</v>
       </c>
-      <c r="D37" s="78" t="s">
+      <c r="E37" s="78" t="s">
         <v>2256</v>
       </c>
-      <c r="E37" s="78">
+      <c r="F37" s="78">
         <v>8</v>
       </c>
-      <c r="F37" s="197" t="s">
+      <c r="G37" s="197" t="s">
         <v>223</v>
       </c>
-      <c r="G37" s="79" t="s">
+      <c r="H37" s="79" t="s">
         <v>2178</v>
       </c>
-      <c r="H37" s="197"/>
-    </row>
-    <row r="38" spans="1:8" ht="16.5">
+      <c r="I37" s="197"/>
+    </row>
+    <row r="38" spans="1:9" ht="16.5">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="E38" s="1">
+      <c r="F38" s="1">
         <v>9</v>
       </c>
-      <c r="F38" s="161" t="s">
+      <c r="G38" s="161" t="s">
         <v>223</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="H38" s="10" t="s">
         <v>2204</v>
       </c>
-      <c r="H38" s="161" t="s">
+      <c r="I38" s="161" t="s">
         <v>2165</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:9" ht="16.5">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
         <v>2259</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>2260</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>2261</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>9</v>
       </c>
-      <c r="F39" s="161" t="s">
+      <c r="G39" s="161" t="s">
         <v>223</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="H39" s="10" t="s">
         <v>2204</v>
       </c>
-      <c r="H39" s="161"/>
-    </row>
-    <row r="40" spans="1:8" ht="16.5">
+      <c r="I39" s="161"/>
+    </row>
+    <row r="40" spans="1:9" ht="16.5">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
         <v>2262</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>2263</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>2264</v>
       </c>
-      <c r="E40" s="1">
+      <c r="F40" s="1">
         <v>9</v>
       </c>
-      <c r="F40" s="161" t="s">
+      <c r="G40" s="161" t="s">
         <v>223</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="H40" s="10" t="s">
         <v>2204</v>
       </c>
-      <c r="H40" s="161"/>
-    </row>
-    <row r="41" spans="1:8" ht="16.5">
+      <c r="I40" s="161"/>
+    </row>
+    <row r="41" spans="1:9" ht="16.5">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
         <v>2265</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>2266</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F41" s="1">
         <v>9</v>
       </c>
-      <c r="F41" s="161" t="s">
+      <c r="G41" s="161" t="s">
         <v>223</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="H41" s="10" t="s">
         <v>2204</v>
       </c>
-      <c r="H41" s="161"/>
-    </row>
-    <row r="42" spans="1:8" ht="16.5">
+      <c r="I41" s="161"/>
+    </row>
+    <row r="42" spans="1:9" ht="16.5">
       <c r="A42" s="78">
         <v>41</v>
       </c>
-      <c r="B42" s="78" t="s">
+      <c r="B42" s="78"/>
+      <c r="C42" s="78" t="s">
         <v>2267</v>
       </c>
-      <c r="C42" s="78" t="s">
+      <c r="D42" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="78" t="s">
+      <c r="E42" s="78" t="s">
         <v>2268</v>
       </c>
-      <c r="E42" s="78">
+      <c r="F42" s="78">
         <v>10</v>
       </c>
-      <c r="F42" s="194" t="s">
+      <c r="G42" s="194" t="s">
         <v>255</v>
       </c>
-      <c r="G42" s="79" t="s">
+      <c r="H42" s="79" t="s">
         <v>2204</v>
       </c>
-      <c r="H42" s="194" t="s">
+      <c r="I42" s="194" t="s">
         <v>2170</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:9" ht="16.5">
       <c r="A43" s="78">
         <v>42</v>
       </c>
-      <c r="B43" s="78" t="s">
+      <c r="B43" s="78"/>
+      <c r="C43" s="78" t="s">
         <v>2269</v>
       </c>
-      <c r="C43" s="78" t="s">
+      <c r="D43" s="78" t="s">
         <v>2270</v>
       </c>
-      <c r="D43" s="78" t="s">
+      <c r="E43" s="78" t="s">
         <v>2271</v>
       </c>
-      <c r="E43" s="78">
+      <c r="F43" s="78">
         <v>10</v>
       </c>
-      <c r="F43" s="194" t="s">
+      <c r="G43" s="194" t="s">
         <v>255</v>
       </c>
-      <c r="G43" s="79" t="s">
+      <c r="H43" s="79" t="s">
         <v>2204</v>
       </c>
-      <c r="H43" s="194"/>
-    </row>
-    <row r="44" spans="1:8" ht="16.5">
+      <c r="I43" s="194"/>
+    </row>
+    <row r="44" spans="1:9" ht="16.5">
       <c r="A44" s="78">
         <v>43</v>
       </c>
-      <c r="B44" s="78" t="s">
+      <c r="B44" s="78"/>
+      <c r="C44" s="78" t="s">
         <v>2272</v>
       </c>
-      <c r="C44" s="78" t="s">
+      <c r="D44" s="78" t="s">
         <v>2105</v>
       </c>
-      <c r="D44" s="78" t="s">
+      <c r="E44" s="78" t="s">
         <v>2273</v>
       </c>
-      <c r="E44" s="78">
+      <c r="F44" s="78">
         <v>10</v>
       </c>
-      <c r="F44" s="194" t="s">
+      <c r="G44" s="194" t="s">
         <v>255</v>
       </c>
-      <c r="G44" s="79" t="s">
+      <c r="H44" s="79" t="s">
         <v>2204</v>
       </c>
-      <c r="H44" s="194"/>
-    </row>
-    <row r="45" spans="1:8" ht="16.5">
+      <c r="I44" s="194"/>
+    </row>
+    <row r="45" spans="1:9" ht="16.5">
       <c r="A45" s="78">
         <v>44</v>
       </c>
-      <c r="B45" s="78" t="s">
+      <c r="B45" s="78"/>
+      <c r="C45" s="78" t="s">
         <v>2274</v>
       </c>
-      <c r="C45" s="78" t="s">
+      <c r="D45" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="D45" s="78" t="s">
+      <c r="E45" s="78" t="s">
         <v>2275</v>
       </c>
-      <c r="E45" s="78">
+      <c r="F45" s="78">
         <v>10</v>
       </c>
-      <c r="F45" s="194" t="s">
+      <c r="G45" s="194" t="s">
         <v>255</v>
       </c>
-      <c r="G45" s="79" t="s">
+      <c r="H45" s="79" t="s">
         <v>2204</v>
       </c>
-      <c r="H45" s="194"/>
-    </row>
-    <row r="46" spans="1:8" ht="16.5">
+      <c r="I45" s="194"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.5">
       <c r="A46" s="78">
         <v>45</v>
       </c>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="78"/>
+      <c r="C46" s="78" t="s">
         <v>2276</v>
       </c>
-      <c r="C46" s="78" t="s">
+      <c r="D46" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="79" t="s">
+      <c r="E46" s="79" t="s">
         <v>2277</v>
       </c>
-      <c r="E46" s="78">
+      <c r="F46" s="78">
         <v>10</v>
       </c>
-      <c r="F46" s="194" t="s">
+      <c r="G46" s="194" t="s">
         <v>255</v>
       </c>
-      <c r="G46" s="79" t="s">
+      <c r="H46" s="79" t="s">
         <v>2204</v>
       </c>
-      <c r="H46" s="194"/>
-    </row>
-    <row r="47" spans="1:8" ht="16.5">
+      <c r="I46" s="194"/>
+    </row>
+    <row r="47" spans="1:9" ht="16.5">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="1"/>
+      <c r="C47" s="17" t="s">
         <v>2278</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="D47" s="17" t="s">
         <v>2279</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>2280</v>
       </c>
-      <c r="E47" s="1">
+      <c r="F47" s="1">
         <v>11</v>
       </c>
-      <c r="F47" s="161" t="s">
-        <v>2281</v>
-      </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="161" t="s">
+        <v>268</v>
+      </c>
+      <c r="H47" s="10" t="s">
         <v>2160</v>
       </c>
-      <c r="H47" s="161" t="s">
+      <c r="I47" s="161" t="s">
         <v>2161</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16.5">
+    <row r="48" spans="1:9" ht="16.5">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
         <v>2282</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>2283</v>
       </c>
-      <c r="E48" s="1">
+      <c r="F48" s="1">
         <v>11</v>
       </c>
-      <c r="F48" s="161" t="s">
+      <c r="G48" s="161" t="s">
         <v>2281</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="H48" s="10" t="s">
         <v>2160</v>
       </c>
-      <c r="H48" s="161"/>
-    </row>
-    <row r="49" spans="1:8" ht="16.5">
+      <c r="I48" s="161"/>
+    </row>
+    <row r="49" spans="1:9" ht="16.5">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
         <v>2284</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>2285</v>
       </c>
-      <c r="E49" s="1">
+      <c r="F49" s="1">
         <v>11</v>
       </c>
-      <c r="F49" s="161" t="s">
+      <c r="G49" s="161" t="s">
         <v>2281</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="H49" s="10" t="s">
         <v>2160</v>
       </c>
-      <c r="H49" s="161"/>
-    </row>
-    <row r="50" spans="1:8" ht="16.5">
+      <c r="I49" s="161"/>
+    </row>
+    <row r="50" spans="1:9" ht="16.5">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
         <v>2286</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>2287</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>2288</v>
       </c>
-      <c r="E50" s="1">
+      <c r="F50" s="1">
         <v>11</v>
       </c>
-      <c r="F50" s="161" t="s">
+      <c r="G50" s="161" t="s">
         <v>2281</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="H50" s="10" t="s">
         <v>2160</v>
       </c>
-      <c r="H50" s="161"/>
-    </row>
-    <row r="51" spans="1:8" ht="16.5">
+      <c r="I50" s="161"/>
+    </row>
+    <row r="51" spans="1:9" ht="16.5">
       <c r="A51" s="78">
         <v>50</v>
       </c>
-      <c r="B51" s="78" t="s">
+      <c r="B51" s="78"/>
+      <c r="C51" s="78" t="s">
         <v>2289</v>
       </c>
-      <c r="C51" s="78" t="s">
+      <c r="D51" s="78" t="s">
         <v>2290</v>
       </c>
-      <c r="D51" s="78" t="s">
+      <c r="E51" s="78" t="s">
         <v>2291</v>
       </c>
-      <c r="E51" s="78">
+      <c r="F51" s="78">
         <v>12</v>
       </c>
-      <c r="F51" s="194" t="s">
+      <c r="G51" s="194" t="s">
         <v>283</v>
       </c>
-      <c r="G51" s="79" t="s">
+      <c r="H51" s="79" t="s">
         <v>2178</v>
       </c>
-      <c r="H51" s="194" t="s">
+      <c r="I51" s="194" t="s">
         <v>2170</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16.5">
+    <row r="52" spans="1:9" ht="16.5">
       <c r="A52" s="78">
         <v>51</v>
       </c>
-      <c r="B52" s="78" t="s">
+      <c r="B52" s="78"/>
+      <c r="C52" s="78" t="s">
         <v>2292</v>
       </c>
-      <c r="C52" s="78" t="s">
+      <c r="D52" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="D52" s="78" t="s">
+      <c r="E52" s="78" t="s">
         <v>2293</v>
       </c>
-      <c r="E52" s="78">
+      <c r="F52" s="78">
         <v>12</v>
       </c>
-      <c r="F52" s="194" t="s">
+      <c r="G52" s="194" t="s">
         <v>283</v>
       </c>
-      <c r="G52" s="79" t="s">
+      <c r="H52" s="79" t="s">
         <v>2178</v>
       </c>
-      <c r="H52" s="194"/>
-    </row>
-    <row r="53" spans="1:8" ht="16.5">
+      <c r="I52" s="194"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.5">
       <c r="A53" s="78">
         <v>52</v>
       </c>
-      <c r="B53" s="78" t="s">
+      <c r="B53" s="78"/>
+      <c r="C53" s="78" t="s">
         <v>2294</v>
       </c>
-      <c r="C53" s="78" t="s">
+      <c r="D53" s="78" t="s">
         <v>2295</v>
       </c>
-      <c r="D53" s="78" t="s">
+      <c r="E53" s="78" t="s">
         <v>2296</v>
       </c>
-      <c r="E53" s="78">
+      <c r="F53" s="78">
         <v>12</v>
       </c>
-      <c r="F53" s="194" t="s">
+      <c r="G53" s="194" t="s">
         <v>283</v>
       </c>
-      <c r="G53" s="79" t="s">
+      <c r="H53" s="79" t="s">
         <v>2178</v>
       </c>
-      <c r="H53" s="194"/>
-    </row>
-    <row r="54" spans="1:8" ht="16.5">
+      <c r="I53" s="194"/>
+    </row>
+    <row r="54" spans="1:9" ht="16.5">
       <c r="A54" s="78">
         <v>53</v>
       </c>
-      <c r="B54" s="78" t="s">
+      <c r="B54" s="78"/>
+      <c r="C54" s="78" t="s">
         <v>2297</v>
       </c>
-      <c r="C54" s="78" t="s">
+      <c r="D54" s="78" t="s">
         <v>2298</v>
       </c>
-      <c r="D54" s="79" t="s">
+      <c r="E54" s="79" t="s">
         <v>2299</v>
       </c>
-      <c r="E54" s="78">
+      <c r="F54" s="78">
         <v>12</v>
       </c>
-      <c r="F54" s="194" t="s">
+      <c r="G54" s="194" t="s">
         <v>283</v>
       </c>
-      <c r="G54" s="79" t="s">
+      <c r="H54" s="79" t="s">
         <v>2178</v>
       </c>
-      <c r="H54" s="194"/>
-    </row>
-    <row r="55" spans="1:8" ht="16.5">
+      <c r="I54" s="194"/>
+    </row>
+    <row r="55" spans="1:9" ht="16.5">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -52491,8 +52546,9 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" ht="16.5">
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.5">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -52501,8 +52557,9 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" ht="16.5">
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.5">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -52511,8 +52568,9 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" ht="16.5">
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" ht="16.5">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -52521,8 +52579,9 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" ht="16.5">
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" ht="16.5">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -52531,8 +52590,9 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" ht="16.5">
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" ht="16.5">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -52541,8 +52601,9 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" ht="16.5">
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" ht="16.5">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -52551,8 +52612,9 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="1:8" ht="16.5">
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" ht="16.5">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -52561,8 +52623,9 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="1:8" ht="16.5">
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" ht="16.5">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -52571,8 +52634,9 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" ht="16.5">
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" ht="16.5">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -52581,8 +52645,9 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:8" ht="16.5">
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" ht="16.5">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -52591,8 +52656,9 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="1:8" ht="16.5">
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" ht="16.5">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -52601,8 +52667,9 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="1:8" ht="16.5">
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" ht="16.5">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -52611,8 +52678,9 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="1:8" ht="16.5">
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" ht="16.5">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -52621,8 +52689,9 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="1:8" ht="16.5">
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" ht="16.5">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -52631,8 +52700,9 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="1:8" ht="16.5">
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" ht="16.5">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -52641,8 +52711,9 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-    </row>
-    <row r="71" spans="1:8" ht="16.5">
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9" ht="16.5">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -52651,8 +52722,9 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-    </row>
-    <row r="72" spans="1:8" ht="16.5">
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" ht="16.5">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -52661,8 +52733,9 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-    </row>
-    <row r="73" spans="1:8" ht="16.5">
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" ht="16.5">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -52671,8 +52744,9 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-    </row>
-    <row r="74" spans="1:8" ht="16.5">
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" ht="16.5">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -52681,8 +52755,9 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-    </row>
-    <row r="75" spans="1:8" ht="16.5">
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" ht="16.5">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -52691,8 +52766,9 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="1:8" ht="16.5">
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" ht="16.5">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -52701,8 +52777,9 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-    </row>
-    <row r="77" spans="1:8" ht="16.5">
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" ht="16.5">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -52711,8 +52788,9 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-    </row>
-    <row r="78" spans="1:8" ht="16.5">
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" ht="16.5">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -52721,8 +52799,9 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="1:8" ht="16.5">
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" ht="16.5">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -52731,8 +52810,9 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-    </row>
-    <row r="80" spans="1:8" ht="16.5">
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" ht="16.5">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -52741,8 +52821,9 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-    </row>
-    <row r="81" spans="1:8" ht="16.5">
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:9" ht="16.5">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -52751,8 +52832,9 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="1:8" ht="16.5">
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9" ht="16.5">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -52761,8 +52843,9 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
-    </row>
-    <row r="83" spans="1:8" ht="16.5">
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" ht="16.5">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -52771,8 +52854,9 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-    </row>
-    <row r="84" spans="1:8" ht="16.5">
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" ht="16.5">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -52781,8 +52865,9 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-    </row>
-    <row r="85" spans="1:8" ht="16.5">
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" ht="16.5">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -52791,8 +52876,9 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-    </row>
-    <row r="86" spans="1:8" ht="16.5">
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" ht="16.5">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -52801,8 +52887,9 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
-    </row>
-    <row r="87" spans="1:8" ht="16.5">
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="1:9" ht="16.5">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -52811,8 +52898,9 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-    </row>
-    <row r="88" spans="1:8" ht="16.5">
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="1:9" ht="16.5">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -52821,8 +52909,9 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
-    </row>
-    <row r="89" spans="1:8" ht="16.5">
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" ht="16.5">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -52831,8 +52920,9 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="1:8" ht="16.5">
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="1:9" ht="16.5">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -52841,8 +52931,9 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
-    </row>
-    <row r="91" spans="1:8" ht="16.5">
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="1:9" ht="16.5">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -52851,8 +52942,9 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="1:8" ht="16.5">
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" ht="16.5">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -52861,8 +52953,9 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
-    </row>
-    <row r="93" spans="1:8" ht="16.5">
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="1:9" ht="16.5">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -52871,8 +52964,9 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
-    </row>
-    <row r="94" spans="1:8" ht="16.5">
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" ht="16.5">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -52881,8 +52975,9 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
-    </row>
-    <row r="95" spans="1:8" ht="16.5">
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="1:9" ht="16.5">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -52891,8 +52986,9 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
-    </row>
-    <row r="96" spans="1:8" ht="16.5">
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="1:9" ht="16.5">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -52901,8 +52997,9 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-    </row>
-    <row r="97" spans="1:8" ht="16.5">
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="1:9" ht="16.5">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -52911,8 +53008,9 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
-    </row>
-    <row r="98" spans="1:8" ht="16.5">
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="1:9" ht="16.5">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -52921,8 +53019,9 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
-    </row>
-    <row r="99" spans="1:8" ht="16.5">
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="1:9" ht="16.5">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -52931,8 +53030,9 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
-    </row>
-    <row r="100" spans="1:8" ht="16.5">
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="1:9" ht="16.5">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -52941,8 +53041,9 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
-    </row>
-    <row r="101" spans="1:8" ht="16.5">
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="1:9" ht="16.5">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -52951,8 +53052,9 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
-    </row>
-    <row r="102" spans="1:8" ht="16.5">
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="1:9" ht="16.5">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -52961,8 +53063,9 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
-    </row>
-    <row r="103" spans="1:8" ht="16.5">
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="1:9" ht="16.5">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -52971,8 +53074,9 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
-    </row>
-    <row r="104" spans="1:8" ht="16.5">
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="1:9" ht="16.5">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -52981,8 +53085,9 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-    </row>
-    <row r="105" spans="1:8" ht="16.5">
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="1:9" ht="16.5">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -52991,8 +53096,9 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
-    </row>
-    <row r="106" spans="1:8" ht="16.5">
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="1:9" ht="16.5">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -53001,8 +53107,9 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
-    </row>
-    <row r="107" spans="1:8" ht="16.5">
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="1:9" ht="16.5">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -53011,8 +53118,9 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
-    </row>
-    <row r="108" spans="1:8" ht="16.5">
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="1:9" ht="16.5">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -53021,8 +53129,9 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
-    </row>
-    <row r="109" spans="1:8" ht="16.5">
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="1:9" ht="16.5">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -53031,8 +53140,9 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
-    </row>
-    <row r="110" spans="1:8" ht="16.5">
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="1:9" ht="16.5">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -53041,8 +53151,9 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
-    </row>
-    <row r="111" spans="1:8" ht="16.5">
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" spans="1:9" ht="16.5">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -53051,8 +53162,9 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
-    </row>
-    <row r="112" spans="1:8" ht="16.5">
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="1:9" ht="16.5">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -53061,8 +53173,9 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
-    </row>
-    <row r="113" spans="1:8" ht="16.5">
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" spans="1:9" ht="16.5">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -53071,8 +53184,9 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
-    </row>
-    <row r="114" spans="1:8" ht="16.5">
+      <c r="I113" s="1"/>
+    </row>
+    <row r="114" spans="1:9" ht="16.5">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -53081,8 +53195,9 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
-    </row>
-    <row r="115" spans="1:8" ht="16.5">
+      <c r="I114" s="1"/>
+    </row>
+    <row r="115" spans="1:9" ht="16.5">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -53091,8 +53206,9 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
-    </row>
-    <row r="116" spans="1:8" ht="16.5">
+      <c r="I115" s="1"/>
+    </row>
+    <row r="116" spans="1:9" ht="16.5">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -53101,8 +53217,9 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
-    </row>
-    <row r="117" spans="1:8" ht="16.5">
+      <c r="I116" s="1"/>
+    </row>
+    <row r="117" spans="1:9" ht="16.5">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -53111,8 +53228,9 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
-    </row>
-    <row r="118" spans="1:8" ht="16.5">
+      <c r="I117" s="1"/>
+    </row>
+    <row r="118" spans="1:9" ht="16.5">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -53121,8 +53239,9 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
-    </row>
-    <row r="119" spans="1:8" ht="16.5">
+      <c r="I118" s="1"/>
+    </row>
+    <row r="119" spans="1:9" ht="16.5">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -53131,8 +53250,9 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
-    </row>
-    <row r="120" spans="1:8" ht="16.5">
+      <c r="I119" s="1"/>
+    </row>
+    <row r="120" spans="1:9" ht="16.5">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -53141,8 +53261,9 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
-    </row>
-    <row r="121" spans="1:8" ht="16.5">
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="1:9" ht="16.5">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -53151,8 +53272,9 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
-    </row>
-    <row r="122" spans="1:8" ht="16.5">
+      <c r="I121" s="1"/>
+    </row>
+    <row r="122" spans="1:9" ht="16.5">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -53161,8 +53283,9 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
-    </row>
-    <row r="123" spans="1:8" ht="16.5">
+      <c r="I122" s="1"/>
+    </row>
+    <row r="123" spans="1:9" ht="16.5">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -53171,8 +53294,9 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
-    </row>
-    <row r="124" spans="1:8" ht="16.5">
+      <c r="I123" s="1"/>
+    </row>
+    <row r="124" spans="1:9" ht="16.5">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -53181,8 +53305,9 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
-    </row>
-    <row r="125" spans="1:8" ht="16.5">
+      <c r="I124" s="1"/>
+    </row>
+    <row r="125" spans="1:9" ht="16.5">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -53191,8 +53316,9 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
-    </row>
-    <row r="126" spans="1:8" ht="16.5">
+      <c r="I125" s="1"/>
+    </row>
+    <row r="126" spans="1:9" ht="16.5">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -53201,8 +53327,9 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
-    </row>
-    <row r="127" spans="1:8" ht="16.5">
+      <c r="I126" s="1"/>
+    </row>
+    <row r="127" spans="1:9" ht="16.5">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -53211,8 +53338,9 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
-    </row>
-    <row r="128" spans="1:8" ht="16.5">
+      <c r="I127" s="1"/>
+    </row>
+    <row r="128" spans="1:9" ht="16.5">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -53221,8 +53349,9 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
-    </row>
-    <row r="129" spans="1:8" ht="16.5">
+      <c r="I128" s="1"/>
+    </row>
+    <row r="129" spans="1:9" ht="16.5">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -53231,8 +53360,9 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
-    </row>
-    <row r="130" spans="1:8" ht="16.5">
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="1:9" ht="16.5">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -53241,8 +53371,9 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
-    </row>
-    <row r="131" spans="1:8" ht="16.5">
+      <c r="I130" s="1"/>
+    </row>
+    <row r="131" spans="1:9" ht="16.5">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -53251,8 +53382,9 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
-    </row>
-    <row r="132" spans="1:8" ht="16.5">
+      <c r="I131" s="1"/>
+    </row>
+    <row r="132" spans="1:9" ht="16.5">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -53261,8 +53393,9 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
-    </row>
-    <row r="133" spans="1:8" ht="16.5">
+      <c r="I132" s="1"/>
+    </row>
+    <row r="133" spans="1:9" ht="16.5">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -53271,8 +53404,9 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
-    </row>
-    <row r="134" spans="1:8" ht="16.5">
+      <c r="I133" s="1"/>
+    </row>
+    <row r="134" spans="1:9" ht="16.5">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -53281,8 +53415,9 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
-    </row>
-    <row r="135" spans="1:8" ht="16.5">
+      <c r="I134" s="1"/>
+    </row>
+    <row r="135" spans="1:9" ht="16.5">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -53291,8 +53426,9 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
-    </row>
-    <row r="136" spans="1:8" ht="16.5">
+      <c r="I135" s="1"/>
+    </row>
+    <row r="136" spans="1:9" ht="16.5">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -53301,8 +53437,9 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
-    </row>
-    <row r="137" spans="1:8" ht="16.5">
+      <c r="I136" s="1"/>
+    </row>
+    <row r="137" spans="1:9" ht="16.5">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -53311,8 +53448,9 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
-    </row>
-    <row r="138" spans="1:8" ht="16.5">
+      <c r="I137" s="1"/>
+    </row>
+    <row r="138" spans="1:9" ht="16.5">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -53321,8 +53459,9 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
-    </row>
-    <row r="139" spans="1:8" ht="16.5">
+      <c r="I138" s="1"/>
+    </row>
+    <row r="139" spans="1:9" ht="16.5">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -53331,8 +53470,9 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
-    </row>
-    <row r="140" spans="1:8" ht="16.5">
+      <c r="I139" s="1"/>
+    </row>
+    <row r="140" spans="1:9" ht="16.5">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -53341,8 +53481,9 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
-    </row>
-    <row r="141" spans="1:8" ht="16.5">
+      <c r="I140" s="1"/>
+    </row>
+    <row r="141" spans="1:9" ht="16.5">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -53351,8 +53492,9 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
-    </row>
-    <row r="142" spans="1:8" ht="16.5">
+      <c r="I141" s="1"/>
+    </row>
+    <row r="142" spans="1:9" ht="16.5">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -53361,8 +53503,9 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
-    </row>
-    <row r="143" spans="1:8" ht="16.5">
+      <c r="I142" s="1"/>
+    </row>
+    <row r="143" spans="1:9" ht="16.5">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -53371,8 +53514,9 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
-    </row>
-    <row r="144" spans="1:8" ht="16.5">
+      <c r="I143" s="1"/>
+    </row>
+    <row r="144" spans="1:9" ht="16.5">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -53381,8 +53525,9 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
-    </row>
-    <row r="145" spans="1:8" ht="16.5">
+      <c r="I144" s="1"/>
+    </row>
+    <row r="145" spans="1:9" ht="16.5">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -53391,8 +53536,9 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
-    </row>
-    <row r="146" spans="1:8" ht="16.5">
+      <c r="I145" s="1"/>
+    </row>
+    <row r="146" spans="1:9" ht="16.5">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -53401,8 +53547,9 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
-    </row>
-    <row r="147" spans="1:8" ht="16.5">
+      <c r="I146" s="1"/>
+    </row>
+    <row r="147" spans="1:9" ht="16.5">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -53411,8 +53558,9 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
-    </row>
-    <row r="148" spans="1:8" ht="16.5">
+      <c r="I147" s="1"/>
+    </row>
+    <row r="148" spans="1:9" ht="16.5">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -53421,8 +53569,9 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
-    </row>
-    <row r="149" spans="1:8" ht="16.5">
+      <c r="I148" s="1"/>
+    </row>
+    <row r="149" spans="1:9" ht="16.5">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -53431,8 +53580,9 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
-    </row>
-    <row r="150" spans="1:8" ht="16.5">
+      <c r="I149" s="1"/>
+    </row>
+    <row r="150" spans="1:9" ht="16.5">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -53441,8 +53591,9 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
-    </row>
-    <row r="151" spans="1:8" ht="16.5">
+      <c r="I150" s="1"/>
+    </row>
+    <row r="151" spans="1:9" ht="16.5">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -53451,8 +53602,9 @@
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
-    </row>
-    <row r="152" spans="1:8" ht="16.5">
+      <c r="I151" s="1"/>
+    </row>
+    <row r="152" spans="1:9" ht="16.5">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -53461,8 +53613,9 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
-    </row>
-    <row r="153" spans="1:8" ht="16.5">
+      <c r="I152" s="1"/>
+    </row>
+    <row r="153" spans="1:9" ht="16.5">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -53471,8 +53624,9 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
-    </row>
-    <row r="154" spans="1:8" ht="16.5">
+      <c r="I153" s="1"/>
+    </row>
+    <row r="154" spans="1:9" ht="16.5">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -53481,8 +53635,9 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
-    </row>
-    <row r="155" spans="1:8" ht="16.5">
+      <c r="I154" s="1"/>
+    </row>
+    <row r="155" spans="1:9" ht="16.5">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -53491,8 +53646,9 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
-    </row>
-    <row r="156" spans="1:8" ht="16.5">
+      <c r="I155" s="1"/>
+    </row>
+    <row r="156" spans="1:9" ht="16.5">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -53501,8 +53657,9 @@
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
-    </row>
-    <row r="157" spans="1:8" ht="16.5">
+      <c r="I156" s="1"/>
+    </row>
+    <row r="157" spans="1:9" ht="16.5">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -53511,8 +53668,9 @@
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
-    </row>
-    <row r="158" spans="1:8" ht="16.5">
+      <c r="I157" s="1"/>
+    </row>
+    <row r="158" spans="1:9" ht="16.5">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -53521,8 +53679,9 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
-    </row>
-    <row r="159" spans="1:8" ht="16.5">
+      <c r="I158" s="1"/>
+    </row>
+    <row r="159" spans="1:9" ht="16.5">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -53531,8 +53690,9 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
-    </row>
-    <row r="160" spans="1:8" ht="16.5">
+      <c r="I159" s="1"/>
+    </row>
+    <row r="160" spans="1:9" ht="16.5">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -53541,8 +53701,9 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
-    </row>
-    <row r="161" spans="1:8" ht="16.5">
+      <c r="I160" s="1"/>
+    </row>
+    <row r="161" spans="1:9" ht="16.5">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -53551,8 +53712,9 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
-    </row>
-    <row r="162" spans="1:8" ht="16.5">
+      <c r="I161" s="1"/>
+    </row>
+    <row r="162" spans="1:9" ht="16.5">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -53561,8 +53723,9 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
-    </row>
-    <row r="163" spans="1:8" ht="16.5">
+      <c r="I162" s="1"/>
+    </row>
+    <row r="163" spans="1:9" ht="16.5">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -53571,8 +53734,9 @@
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
-    </row>
-    <row r="164" spans="1:8" ht="16.5">
+      <c r="I163" s="1"/>
+    </row>
+    <row r="164" spans="1:9" ht="16.5">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -53581,8 +53745,9 @@
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
-    </row>
-    <row r="165" spans="1:8" ht="16.5">
+      <c r="I164" s="1"/>
+    </row>
+    <row r="165" spans="1:9" ht="16.5">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -53591,8 +53756,9 @@
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
-    </row>
-    <row r="166" spans="1:8" ht="16.5">
+      <c r="I165" s="1"/>
+    </row>
+    <row r="166" spans="1:9" ht="16.5">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -53601,8 +53767,9 @@
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
-    </row>
-    <row r="167" spans="1:8" ht="16.5">
+      <c r="I166" s="1"/>
+    </row>
+    <row r="167" spans="1:9" ht="16.5">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -53611,8 +53778,9 @@
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
-    </row>
-    <row r="168" spans="1:8" ht="16.5">
+      <c r="I167" s="1"/>
+    </row>
+    <row r="168" spans="1:9" ht="16.5">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -53621,8 +53789,9 @@
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
-    </row>
-    <row r="169" spans="1:8" ht="16.5">
+      <c r="I168" s="1"/>
+    </row>
+    <row r="169" spans="1:9" ht="16.5">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -53631,8 +53800,9 @@
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
-    </row>
-    <row r="170" spans="1:8" ht="16.5">
+      <c r="I169" s="1"/>
+    </row>
+    <row r="170" spans="1:9" ht="16.5">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -53641,8 +53811,9 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
-    </row>
-    <row r="171" spans="1:8" ht="16.5">
+      <c r="I170" s="1"/>
+    </row>
+    <row r="171" spans="1:9" ht="16.5">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -53651,8 +53822,9 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
-    </row>
-    <row r="172" spans="1:8" ht="16.5">
+      <c r="I171" s="1"/>
+    </row>
+    <row r="172" spans="1:9" ht="16.5">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -53661,8 +53833,9 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
-    </row>
-    <row r="173" spans="1:8" ht="16.5">
+      <c r="I172" s="1"/>
+    </row>
+    <row r="173" spans="1:9" ht="16.5">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -53671,8 +53844,9 @@
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
-    </row>
-    <row r="174" spans="1:8" ht="16.5">
+      <c r="I173" s="1"/>
+    </row>
+    <row r="174" spans="1:9" ht="16.5">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -53681,8 +53855,9 @@
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
-    </row>
-    <row r="175" spans="1:8" ht="16.5">
+      <c r="I174" s="1"/>
+    </row>
+    <row r="175" spans="1:9" ht="16.5">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -53691,8 +53866,9 @@
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
-    </row>
-    <row r="176" spans="1:8" ht="16.5">
+      <c r="I175" s="1"/>
+    </row>
+    <row r="176" spans="1:9" ht="16.5">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -53701,8 +53877,9 @@
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
-    </row>
-    <row r="177" spans="1:8" ht="16.5">
+      <c r="I176" s="1"/>
+    </row>
+    <row r="177" spans="1:9" ht="16.5">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -53711,8 +53888,9 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
-    </row>
-    <row r="178" spans="1:8" ht="16.5">
+      <c r="I177" s="1"/>
+    </row>
+    <row r="178" spans="1:9" ht="16.5">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -53721,8 +53899,9 @@
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
-    </row>
-    <row r="179" spans="1:8" ht="16.5">
+      <c r="I178" s="1"/>
+    </row>
+    <row r="179" spans="1:9" ht="16.5">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -53731,8 +53910,9 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
-    </row>
-    <row r="180" spans="1:8" ht="16.5">
+      <c r="I179" s="1"/>
+    </row>
+    <row r="180" spans="1:9" ht="16.5">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -53741,8 +53921,9 @@
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
-    </row>
-    <row r="181" spans="1:8" ht="16.5">
+      <c r="I180" s="1"/>
+    </row>
+    <row r="181" spans="1:9" ht="16.5">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -53751,8 +53932,9 @@
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
-    </row>
-    <row r="182" spans="1:8" ht="16.5">
+      <c r="I181" s="1"/>
+    </row>
+    <row r="182" spans="1:9" ht="16.5">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -53761,8 +53943,9 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
-    </row>
-    <row r="183" spans="1:8" ht="16.5">
+      <c r="I182" s="1"/>
+    </row>
+    <row r="183" spans="1:9" ht="16.5">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -53771,8 +53954,9 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
-    </row>
-    <row r="184" spans="1:8" ht="16.5">
+      <c r="I183" s="1"/>
+    </row>
+    <row r="184" spans="1:9" ht="16.5">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -53781,8 +53965,9 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
-    </row>
-    <row r="185" spans="1:8" ht="16.5">
+      <c r="I184" s="1"/>
+    </row>
+    <row r="185" spans="1:9" ht="16.5">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -53791,8 +53976,9 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
-    </row>
-    <row r="186" spans="1:8" ht="16.5">
+      <c r="I185" s="1"/>
+    </row>
+    <row r="186" spans="1:9" ht="16.5">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -53801,8 +53987,9 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
-    </row>
-    <row r="187" spans="1:8" ht="16.5">
+      <c r="I186" s="1"/>
+    </row>
+    <row r="187" spans="1:9" ht="16.5">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -53811,8 +53998,9 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
-    </row>
-    <row r="188" spans="1:8" ht="16.5">
+      <c r="I187" s="1"/>
+    </row>
+    <row r="188" spans="1:9" ht="16.5">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -53821,8 +54009,9 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
-    </row>
-    <row r="189" spans="1:8" ht="16.5">
+      <c r="I188" s="1"/>
+    </row>
+    <row r="189" spans="1:9" ht="16.5">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -53831,8 +54020,9 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
-    </row>
-    <row r="190" spans="1:8" ht="16.5">
+      <c r="I189" s="1"/>
+    </row>
+    <row r="190" spans="1:9" ht="16.5">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -53841,8 +54031,9 @@
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
-    </row>
-    <row r="191" spans="1:8" ht="16.5">
+      <c r="I190" s="1"/>
+    </row>
+    <row r="191" spans="1:9" ht="16.5">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -53851,8 +54042,9 @@
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
-    </row>
-    <row r="192" spans="1:8" ht="16.5">
+      <c r="I191" s="1"/>
+    </row>
+    <row r="192" spans="1:9" ht="16.5">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -53861,8 +54053,9 @@
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
-    </row>
-    <row r="193" spans="1:8" ht="16.5">
+      <c r="I192" s="1"/>
+    </row>
+    <row r="193" spans="1:9" ht="16.5">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -53871,8 +54064,9 @@
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
-    </row>
-    <row r="194" spans="1:8" ht="16.5">
+      <c r="I193" s="1"/>
+    </row>
+    <row r="194" spans="1:9" ht="16.5">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -53881,8 +54075,9 @@
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
-    </row>
-    <row r="195" spans="1:8" ht="16.5">
+      <c r="I194" s="1"/>
+    </row>
+    <row r="195" spans="1:9" ht="16.5">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -53891,8 +54086,9 @@
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
-    </row>
-    <row r="196" spans="1:8" ht="16.5">
+      <c r="I195" s="1"/>
+    </row>
+    <row r="196" spans="1:9" ht="16.5">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -53901,8 +54097,9 @@
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
-    </row>
-    <row r="197" spans="1:8" ht="16.5">
+      <c r="I196" s="1"/>
+    </row>
+    <row r="197" spans="1:9" ht="16.5">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -53911,8 +54108,9 @@
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
-    </row>
-    <row r="198" spans="1:8" ht="16.5">
+      <c r="I197" s="1"/>
+    </row>
+    <row r="198" spans="1:9" ht="16.5">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -53921,8 +54119,9 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
-    </row>
-    <row r="199" spans="1:8" ht="16.5">
+      <c r="I198" s="1"/>
+    </row>
+    <row r="199" spans="1:9" ht="16.5">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -53931,8 +54130,9 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
-    </row>
-    <row r="200" spans="1:8" ht="16.5">
+      <c r="I199" s="1"/>
+    </row>
+    <row r="200" spans="1:9" ht="16.5">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -53941,8 +54141,9 @@
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
-    </row>
-    <row r="201" spans="1:8" ht="16.5">
+      <c r="I200" s="1"/>
+    </row>
+    <row r="201" spans="1:9" ht="16.5">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -53951,8 +54152,9 @@
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
-    </row>
-    <row r="202" spans="1:8" ht="16.5">
+      <c r="I201" s="1"/>
+    </row>
+    <row r="202" spans="1:9" ht="16.5">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -53961,8 +54163,9 @@
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
-    </row>
-    <row r="203" spans="1:8" ht="16.5">
+      <c r="I202" s="1"/>
+    </row>
+    <row r="203" spans="1:9" ht="16.5">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -53971,8 +54174,9 @@
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
-    </row>
-    <row r="204" spans="1:8" ht="16.5">
+      <c r="I203" s="1"/>
+    </row>
+    <row r="204" spans="1:9" ht="16.5">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -53981,8 +54185,9 @@
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
-    </row>
-    <row r="205" spans="1:8" ht="16.5">
+      <c r="I204" s="1"/>
+    </row>
+    <row r="205" spans="1:9" ht="16.5">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -53991,8 +54196,9 @@
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
-    </row>
-    <row r="206" spans="1:8" ht="16.5">
+      <c r="I205" s="1"/>
+    </row>
+    <row r="206" spans="1:9" ht="16.5">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -54001,8 +54207,9 @@
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
-    </row>
-    <row r="207" spans="1:8" ht="16.5">
+      <c r="I206" s="1"/>
+    </row>
+    <row r="207" spans="1:9" ht="16.5">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -54011,8 +54218,9 @@
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
-    </row>
-    <row r="208" spans="1:8" ht="16.5">
+      <c r="I207" s="1"/>
+    </row>
+    <row r="208" spans="1:9" ht="16.5">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -54021,8 +54229,9 @@
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
-    </row>
-    <row r="209" spans="1:8" ht="16.5">
+      <c r="I208" s="1"/>
+    </row>
+    <row r="209" spans="1:9" ht="16.5">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -54031,8 +54240,9 @@
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
-    </row>
-    <row r="210" spans="1:8" ht="16.5">
+      <c r="I209" s="1"/>
+    </row>
+    <row r="210" spans="1:9" ht="16.5">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -54041,8 +54251,9 @@
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
-    </row>
-    <row r="211" spans="1:8" ht="16.5">
+      <c r="I210" s="1"/>
+    </row>
+    <row r="211" spans="1:9" ht="16.5">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -54051,8 +54262,9 @@
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
-    </row>
-    <row r="212" spans="1:8" ht="16.5">
+      <c r="I211" s="1"/>
+    </row>
+    <row r="212" spans="1:9" ht="16.5">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -54061,8 +54273,9 @@
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
-    </row>
-    <row r="213" spans="1:8" ht="16.5">
+      <c r="I212" s="1"/>
+    </row>
+    <row r="213" spans="1:9" ht="16.5">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -54071,8 +54284,9 @@
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
-    </row>
-    <row r="214" spans="1:8" ht="16.5">
+      <c r="I213" s="1"/>
+    </row>
+    <row r="214" spans="1:9" ht="16.5">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -54081,8 +54295,9 @@
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
-    </row>
-    <row r="215" spans="1:8" ht="16.5">
+      <c r="I214" s="1"/>
+    </row>
+    <row r="215" spans="1:9" ht="16.5">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -54091,8 +54306,9 @@
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
-    </row>
-    <row r="216" spans="1:8" ht="16.5">
+      <c r="I215" s="1"/>
+    </row>
+    <row r="216" spans="1:9" ht="16.5">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -54101,8 +54317,9 @@
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
-    </row>
-    <row r="217" spans="1:8" ht="16.5">
+      <c r="I216" s="1"/>
+    </row>
+    <row r="217" spans="1:9" ht="16.5">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -54111,8 +54328,9 @@
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
-    </row>
-    <row r="218" spans="1:8" ht="16.5">
+      <c r="I217" s="1"/>
+    </row>
+    <row r="218" spans="1:9" ht="16.5">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -54121,8 +54339,9 @@
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
-    </row>
-    <row r="219" spans="1:8" ht="16.5">
+      <c r="I218" s="1"/>
+    </row>
+    <row r="219" spans="1:9" ht="16.5">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -54131,8 +54350,9 @@
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
-    </row>
-    <row r="220" spans="1:8" ht="16.5">
+      <c r="I219" s="1"/>
+    </row>
+    <row r="220" spans="1:9" ht="16.5">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -54141,8 +54361,9 @@
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
-    </row>
-    <row r="221" spans="1:8" ht="16.5">
+      <c r="I220" s="1"/>
+    </row>
+    <row r="221" spans="1:9" ht="16.5">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -54151,8 +54372,9 @@
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
-    </row>
-    <row r="222" spans="1:8" ht="16.5">
+      <c r="I221" s="1"/>
+    </row>
+    <row r="222" spans="1:9" ht="16.5">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -54161,8 +54383,9 @@
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
-    </row>
-    <row r="223" spans="1:8" ht="16.5">
+      <c r="I222" s="1"/>
+    </row>
+    <row r="223" spans="1:9" ht="16.5">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -54171,8 +54394,9 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
-    </row>
-    <row r="224" spans="1:8" ht="16.5">
+      <c r="I223" s="1"/>
+    </row>
+    <row r="224" spans="1:9" ht="16.5">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -54181,8 +54405,9 @@
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
-    </row>
-    <row r="225" spans="1:8" ht="16.5">
+      <c r="I224" s="1"/>
+    </row>
+    <row r="225" spans="1:9" ht="16.5">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -54191,8 +54416,9 @@
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
-    </row>
-    <row r="226" spans="1:8" ht="16.5">
+      <c r="I225" s="1"/>
+    </row>
+    <row r="226" spans="1:9" ht="16.5">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -54201,8 +54427,9 @@
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
-    </row>
-    <row r="227" spans="1:8" ht="16.5">
+      <c r="I226" s="1"/>
+    </row>
+    <row r="227" spans="1:9" ht="16.5">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -54211,8 +54438,9 @@
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
-    </row>
-    <row r="228" spans="1:8" ht="16.5">
+      <c r="I227" s="1"/>
+    </row>
+    <row r="228" spans="1:9" ht="16.5">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -54221,8 +54449,9 @@
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
-    </row>
-    <row r="229" spans="1:8" ht="16.5">
+      <c r="I228" s="1"/>
+    </row>
+    <row r="229" spans="1:9" ht="16.5">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -54231,8 +54460,9 @@
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
-    </row>
-    <row r="230" spans="1:8" ht="16.5">
+      <c r="I229" s="1"/>
+    </row>
+    <row r="230" spans="1:9" ht="16.5">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -54241,8 +54471,9 @@
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
-    </row>
-    <row r="231" spans="1:8" ht="16.5">
+      <c r="I230" s="1"/>
+    </row>
+    <row r="231" spans="1:9" ht="16.5">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -54251,8 +54482,9 @@
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
-    </row>
-    <row r="232" spans="1:8" ht="16.5">
+      <c r="I231" s="1"/>
+    </row>
+    <row r="232" spans="1:9" ht="16.5">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -54261,8 +54493,9 @@
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
-    </row>
-    <row r="233" spans="1:8" ht="16.5">
+      <c r="I232" s="1"/>
+    </row>
+    <row r="233" spans="1:9" ht="16.5">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -54271,8 +54504,9 @@
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
-    </row>
-    <row r="234" spans="1:8" ht="16.5">
+      <c r="I233" s="1"/>
+    </row>
+    <row r="234" spans="1:9" ht="16.5">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -54281,8 +54515,9 @@
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
-    </row>
-    <row r="235" spans="1:8" ht="16.5">
+      <c r="I234" s="1"/>
+    </row>
+    <row r="235" spans="1:9" ht="16.5">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -54291,8 +54526,9 @@
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
-    </row>
-    <row r="236" spans="1:8" ht="16.5">
+      <c r="I235" s="1"/>
+    </row>
+    <row r="236" spans="1:9" ht="16.5">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -54301,8 +54537,9 @@
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
-    </row>
-    <row r="237" spans="1:8" ht="16.5">
+      <c r="I236" s="1"/>
+    </row>
+    <row r="237" spans="1:9" ht="16.5">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -54311,8 +54548,9 @@
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
-    </row>
-    <row r="238" spans="1:8" ht="16.5">
+      <c r="I237" s="1"/>
+    </row>
+    <row r="238" spans="1:9" ht="16.5">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -54321,8 +54559,9 @@
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
-    </row>
-    <row r="239" spans="1:8" ht="16.5">
+      <c r="I238" s="1"/>
+    </row>
+    <row r="239" spans="1:9" ht="16.5">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -54331,8 +54570,9 @@
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
-    </row>
-    <row r="240" spans="1:8" ht="16.5">
+      <c r="I239" s="1"/>
+    </row>
+    <row r="240" spans="1:9" ht="16.5">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -54341,8 +54581,9 @@
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
-    </row>
-    <row r="241" spans="1:8" ht="16.5">
+      <c r="I240" s="1"/>
+    </row>
+    <row r="241" spans="1:9" ht="16.5">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -54351,8 +54592,9 @@
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
-    </row>
-    <row r="242" spans="1:8" ht="16.5">
+      <c r="I241" s="1"/>
+    </row>
+    <row r="242" spans="1:9" ht="16.5">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -54361,8 +54603,9 @@
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
-    </row>
-    <row r="243" spans="1:8" ht="16.5">
+      <c r="I242" s="1"/>
+    </row>
+    <row r="243" spans="1:9" ht="16.5">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -54371,8 +54614,9 @@
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
-    </row>
-    <row r="244" spans="1:8" ht="16.5">
+      <c r="I243" s="1"/>
+    </row>
+    <row r="244" spans="1:9" ht="16.5">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -54381,8 +54625,9 @@
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
-    </row>
-    <row r="245" spans="1:8" ht="16.5">
+      <c r="I244" s="1"/>
+    </row>
+    <row r="245" spans="1:9" ht="16.5">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -54391,8 +54636,9 @@
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
-    </row>
-    <row r="246" spans="1:8" ht="16.5">
+      <c r="I245" s="1"/>
+    </row>
+    <row r="246" spans="1:9" ht="16.5">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -54401,8 +54647,9 @@
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
-    </row>
-    <row r="247" spans="1:8" ht="16.5">
+      <c r="I246" s="1"/>
+    </row>
+    <row r="247" spans="1:9" ht="16.5">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -54411,8 +54658,9 @@
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
-    </row>
-    <row r="248" spans="1:8" ht="16.5">
+      <c r="I247" s="1"/>
+    </row>
+    <row r="248" spans="1:9" ht="16.5">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -54421,8 +54669,9 @@
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
-    </row>
-    <row r="249" spans="1:8" ht="16.5">
+      <c r="I248" s="1"/>
+    </row>
+    <row r="249" spans="1:9" ht="16.5">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -54431,8 +54680,9 @@
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
-    </row>
-    <row r="250" spans="1:8" ht="16.5">
+      <c r="I249" s="1"/>
+    </row>
+    <row r="250" spans="1:9" ht="16.5">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -54441,8 +54691,9 @@
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
-    </row>
-    <row r="251" spans="1:8" ht="16.5">
+      <c r="I250" s="1"/>
+    </row>
+    <row r="251" spans="1:9" ht="16.5">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -54451,8 +54702,9 @@
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
-    </row>
-    <row r="252" spans="1:8" ht="16.5">
+      <c r="I251" s="1"/>
+    </row>
+    <row r="252" spans="1:9" ht="16.5">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -54461,8 +54713,9 @@
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
-    </row>
-    <row r="253" spans="1:8" ht="16.5">
+      <c r="I252" s="1"/>
+    </row>
+    <row r="253" spans="1:9" ht="16.5">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -54471,8 +54724,9 @@
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
-    </row>
-    <row r="254" spans="1:8" ht="16.5">
+      <c r="I253" s="1"/>
+    </row>
+    <row r="254" spans="1:9" ht="16.5">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -54481,8 +54735,9 @@
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
-    </row>
-    <row r="255" spans="1:8" ht="16.5">
+      <c r="I254" s="1"/>
+    </row>
+    <row r="255" spans="1:9" ht="16.5">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -54491,8 +54746,9 @@
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
-    </row>
-    <row r="256" spans="1:8" ht="16.5">
+      <c r="I255" s="1"/>
+    </row>
+    <row r="256" spans="1:9" ht="16.5">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -54501,8 +54757,9 @@
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
-    </row>
-    <row r="257" spans="1:8" ht="16.5">
+      <c r="I256" s="1"/>
+    </row>
+    <row r="257" spans="1:9" ht="16.5">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -54511,8 +54768,9 @@
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
-    </row>
-    <row r="258" spans="1:8" ht="16.5">
+      <c r="I257" s="1"/>
+    </row>
+    <row r="258" spans="1:9" ht="16.5">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -54521,8 +54779,9 @@
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
-    </row>
-    <row r="259" spans="1:8" ht="16.5">
+      <c r="I258" s="1"/>
+    </row>
+    <row r="259" spans="1:9" ht="16.5">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -54531,8 +54790,9 @@
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
-    </row>
-    <row r="260" spans="1:8" ht="16.5">
+      <c r="I259" s="1"/>
+    </row>
+    <row r="260" spans="1:9" ht="16.5">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -54541,8 +54801,9 @@
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
-    </row>
-    <row r="261" spans="1:8" ht="16.5">
+      <c r="I260" s="1"/>
+    </row>
+    <row r="261" spans="1:9" ht="16.5">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -54551,8 +54812,9 @@
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
-    </row>
-    <row r="262" spans="1:8" ht="16.5">
+      <c r="I261" s="1"/>
+    </row>
+    <row r="262" spans="1:9" ht="16.5">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -54561,8 +54823,9 @@
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
-    </row>
-    <row r="263" spans="1:8" ht="16.5">
+      <c r="I262" s="1"/>
+    </row>
+    <row r="263" spans="1:9" ht="16.5">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -54571,8 +54834,9 @@
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
-    </row>
-    <row r="264" spans="1:8" ht="16.5">
+      <c r="I263" s="1"/>
+    </row>
+    <row r="264" spans="1:9" ht="16.5">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -54581,8 +54845,9 @@
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
-    </row>
-    <row r="265" spans="1:8" ht="16.5">
+      <c r="I264" s="1"/>
+    </row>
+    <row r="265" spans="1:9" ht="16.5">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -54591,8 +54856,9 @@
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
-    </row>
-    <row r="266" spans="1:8" ht="16.5">
+      <c r="I265" s="1"/>
+    </row>
+    <row r="266" spans="1:9" ht="16.5">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -54601,8 +54867,9 @@
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
-    </row>
-    <row r="267" spans="1:8" ht="16.5">
+      <c r="I266" s="1"/>
+    </row>
+    <row r="267" spans="1:9" ht="16.5">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -54611,8 +54878,9 @@
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
-    </row>
-    <row r="268" spans="1:8" ht="16.5">
+      <c r="I267" s="1"/>
+    </row>
+    <row r="268" spans="1:9" ht="16.5">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -54621,8 +54889,9 @@
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
-    </row>
-    <row r="269" spans="1:8" ht="16.5">
+      <c r="I268" s="1"/>
+    </row>
+    <row r="269" spans="1:9" ht="16.5">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -54631,8 +54900,9 @@
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
-    </row>
-    <row r="270" spans="1:8" ht="16.5">
+      <c r="I269" s="1"/>
+    </row>
+    <row r="270" spans="1:9" ht="16.5">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -54641,8 +54911,9 @@
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
-    </row>
-    <row r="271" spans="1:8" ht="16.5">
+      <c r="I270" s="1"/>
+    </row>
+    <row r="271" spans="1:9" ht="16.5">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -54651,8 +54922,9 @@
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
-    </row>
-    <row r="272" spans="1:8" ht="16.5">
+      <c r="I271" s="1"/>
+    </row>
+    <row r="272" spans="1:9" ht="16.5">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -54661,8 +54933,9 @@
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
-    </row>
-    <row r="273" spans="1:8" ht="16.5">
+      <c r="I272" s="1"/>
+    </row>
+    <row r="273" spans="1:9" ht="16.5">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -54671,8 +54944,9 @@
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
-    </row>
-    <row r="274" spans="1:8" ht="16.5">
+      <c r="I273" s="1"/>
+    </row>
+    <row r="274" spans="1:9" ht="16.5">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -54681,8 +54955,9 @@
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
-    </row>
-    <row r="275" spans="1:8" ht="16.5">
+      <c r="I274" s="1"/>
+    </row>
+    <row r="275" spans="1:9" ht="16.5">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -54691,8 +54966,9 @@
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
-    </row>
-    <row r="276" spans="1:8" ht="16.5">
+      <c r="I275" s="1"/>
+    </row>
+    <row r="276" spans="1:9" ht="16.5">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -54701,8 +54977,9 @@
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
-    </row>
-    <row r="277" spans="1:8" ht="16.5">
+      <c r="I276" s="1"/>
+    </row>
+    <row r="277" spans="1:9" ht="16.5">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -54711,8 +54988,9 @@
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
-    </row>
-    <row r="278" spans="1:8" ht="16.5">
+      <c r="I277" s="1"/>
+    </row>
+    <row r="278" spans="1:9" ht="16.5">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -54721,8 +54999,9 @@
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
-    </row>
-    <row r="279" spans="1:8" ht="16.5">
+      <c r="I278" s="1"/>
+    </row>
+    <row r="279" spans="1:9" ht="16.5">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -54731,8 +55010,9 @@
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
-    </row>
-    <row r="280" spans="1:8" ht="16.5">
+      <c r="I279" s="1"/>
+    </row>
+    <row r="280" spans="1:9" ht="16.5">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -54741,8 +55021,9 @@
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
-    </row>
-    <row r="281" spans="1:8" ht="16.5">
+      <c r="I280" s="1"/>
+    </row>
+    <row r="281" spans="1:9" ht="16.5">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -54751,8 +55032,9 @@
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
-    </row>
-    <row r="282" spans="1:8" ht="16.5">
+      <c r="I281" s="1"/>
+    </row>
+    <row r="282" spans="1:9" ht="16.5">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -54761,8 +55043,9 @@
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
-    </row>
-    <row r="283" spans="1:8" ht="16.5">
+      <c r="I282" s="1"/>
+    </row>
+    <row r="283" spans="1:9" ht="16.5">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -54771,8 +55054,9 @@
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
-    </row>
-    <row r="284" spans="1:8" ht="16.5">
+      <c r="I283" s="1"/>
+    </row>
+    <row r="284" spans="1:9" ht="16.5">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -54781,8 +55065,9 @@
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
-    </row>
-    <row r="285" spans="1:8" ht="16.5">
+      <c r="I284" s="1"/>
+    </row>
+    <row r="285" spans="1:9" ht="16.5">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -54791,8 +55076,9 @@
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
-    </row>
-    <row r="286" spans="1:8" ht="16.5">
+      <c r="I285" s="1"/>
+    </row>
+    <row r="286" spans="1:9" ht="16.5">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -54801,8 +55087,9 @@
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
-    </row>
-    <row r="287" spans="1:8" ht="16.5">
+      <c r="I286" s="1"/>
+    </row>
+    <row r="287" spans="1:9" ht="16.5">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -54811,8 +55098,9 @@
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
-    </row>
-    <row r="288" spans="1:8" ht="16.5">
+      <c r="I287" s="1"/>
+    </row>
+    <row r="288" spans="1:9" ht="16.5">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -54821,8 +55109,9 @@
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
-    </row>
-    <row r="289" spans="1:8" ht="16.5">
+      <c r="I288" s="1"/>
+    </row>
+    <row r="289" spans="1:9" ht="16.5">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -54831,8 +55120,9 @@
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
-    </row>
-    <row r="290" spans="1:8" ht="16.5">
+      <c r="I289" s="1"/>
+    </row>
+    <row r="290" spans="1:9" ht="16.5">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -54841,8 +55131,9 @@
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
-    </row>
-    <row r="291" spans="1:8" ht="16.5">
+      <c r="I290" s="1"/>
+    </row>
+    <row r="291" spans="1:9" ht="16.5">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -54851,8 +55142,9 @@
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
-    </row>
-    <row r="292" spans="1:8" ht="16.5">
+      <c r="I291" s="1"/>
+    </row>
+    <row r="292" spans="1:9" ht="16.5">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -54861,8 +55153,9 @@
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
-    </row>
-    <row r="293" spans="1:8" ht="16.5">
+      <c r="I292" s="1"/>
+    </row>
+    <row r="293" spans="1:9" ht="16.5">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -54871,8 +55164,9 @@
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
-    </row>
-    <row r="294" spans="1:8" ht="16.5">
+      <c r="I293" s="1"/>
+    </row>
+    <row r="294" spans="1:9" ht="16.5">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -54881,8 +55175,9 @@
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
-    </row>
-    <row r="295" spans="1:8" ht="16.5">
+      <c r="I294" s="1"/>
+    </row>
+    <row r="295" spans="1:9" ht="16.5">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -54891,8 +55186,9 @@
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
-    </row>
-    <row r="296" spans="1:8" ht="16.5">
+      <c r="I295" s="1"/>
+    </row>
+    <row r="296" spans="1:9" ht="16.5">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -54901,8 +55197,9 @@
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
-    </row>
-    <row r="297" spans="1:8" ht="16.5">
+      <c r="I296" s="1"/>
+    </row>
+    <row r="297" spans="1:9" ht="16.5">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -54911,8 +55208,9 @@
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
-    </row>
-    <row r="298" spans="1:8" ht="16.5">
+      <c r="I297" s="1"/>
+    </row>
+    <row r="298" spans="1:9" ht="16.5">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -54921,8 +55219,9 @@
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
-    </row>
-    <row r="299" spans="1:8" ht="16.5">
+      <c r="I298" s="1"/>
+    </row>
+    <row r="299" spans="1:9" ht="16.5">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -54931,8 +55230,9 @@
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
-    </row>
-    <row r="300" spans="1:8" ht="16.5">
+      <c r="I299" s="1"/>
+    </row>
+    <row r="300" spans="1:9" ht="16.5">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -54941,8 +55241,9 @@
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
-    </row>
-    <row r="301" spans="1:8" ht="16.5">
+      <c r="I300" s="1"/>
+    </row>
+    <row r="301" spans="1:9" ht="16.5">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -54951,8 +55252,9 @@
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
-    </row>
-    <row r="302" spans="1:8" ht="16.5">
+      <c r="I301" s="1"/>
+    </row>
+    <row r="302" spans="1:9" ht="16.5">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -54961,8 +55263,9 @@
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
-    </row>
-    <row r="303" spans="1:8" ht="16.5">
+      <c r="I302" s="1"/>
+    </row>
+    <row r="303" spans="1:9" ht="16.5">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -54971,8 +55274,9 @@
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
-    </row>
-    <row r="304" spans="1:8" ht="16.5">
+      <c r="I303" s="1"/>
+    </row>
+    <row r="304" spans="1:9" ht="16.5">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -54981,8 +55285,9 @@
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
-    </row>
-    <row r="305" spans="1:8" ht="16.5">
+      <c r="I304" s="1"/>
+    </row>
+    <row r="305" spans="1:9" ht="16.5">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -54991,8 +55296,9 @@
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
-    </row>
-    <row r="306" spans="1:8" ht="16.5">
+      <c r="I305" s="1"/>
+    </row>
+    <row r="306" spans="1:9" ht="16.5">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -55001,8 +55307,9 @@
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
-    </row>
-    <row r="307" spans="1:8" ht="16.5">
+      <c r="I306" s="1"/>
+    </row>
+    <row r="307" spans="1:9" ht="16.5">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -55011,8 +55318,9 @@
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
-    </row>
-    <row r="308" spans="1:8" ht="16.5">
+      <c r="I307" s="1"/>
+    </row>
+    <row r="308" spans="1:9" ht="16.5">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -55021,8 +55329,9 @@
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
-    </row>
-    <row r="309" spans="1:8" ht="16.5">
+      <c r="I308" s="1"/>
+    </row>
+    <row r="309" spans="1:9" ht="16.5">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -55031,8 +55340,9 @@
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
-    </row>
-    <row r="310" spans="1:8" ht="16.5">
+      <c r="I309" s="1"/>
+    </row>
+    <row r="310" spans="1:9" ht="16.5">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -55041,8 +55351,9 @@
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
-    </row>
-    <row r="311" spans="1:8" ht="16.5">
+      <c r="I310" s="1"/>
+    </row>
+    <row r="311" spans="1:9" ht="16.5">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -55051,8 +55362,9 @@
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
-    </row>
-    <row r="312" spans="1:8" ht="16.5">
+      <c r="I311" s="1"/>
+    </row>
+    <row r="312" spans="1:9" ht="16.5">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -55061,8 +55373,9 @@
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
-    </row>
-    <row r="313" spans="1:8" ht="16.5">
+      <c r="I312" s="1"/>
+    </row>
+    <row r="313" spans="1:9" ht="16.5">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -55071,8 +55384,9 @@
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
-    </row>
-    <row r="314" spans="1:8" ht="16.5">
+      <c r="I313" s="1"/>
+    </row>
+    <row r="314" spans="1:9" ht="16.5">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -55081,8 +55395,9 @@
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
-    </row>
-    <row r="315" spans="1:8" ht="16.5">
+      <c r="I314" s="1"/>
+    </row>
+    <row r="315" spans="1:9" ht="16.5">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -55091,8 +55406,9 @@
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
-    </row>
-    <row r="316" spans="1:8" ht="16.5">
+      <c r="I315" s="1"/>
+    </row>
+    <row r="316" spans="1:9" ht="16.5">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -55101,8 +55417,9 @@
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
-    </row>
-    <row r="317" spans="1:8" ht="16.5">
+      <c r="I316" s="1"/>
+    </row>
+    <row r="317" spans="1:9" ht="16.5">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -55111,8 +55428,9 @@
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
-    </row>
-    <row r="318" spans="1:8" ht="16.5">
+      <c r="I317" s="1"/>
+    </row>
+    <row r="318" spans="1:9" ht="16.5">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -55121,8 +55439,9 @@
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
-    </row>
-    <row r="319" spans="1:8" ht="16.5">
+      <c r="I318" s="1"/>
+    </row>
+    <row r="319" spans="1:9" ht="16.5">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -55131,8 +55450,9 @@
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
-    </row>
-    <row r="320" spans="1:8" ht="16.5">
+      <c r="I319" s="1"/>
+    </row>
+    <row r="320" spans="1:9" ht="16.5">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -55141,8 +55461,9 @@
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
-    </row>
-    <row r="321" spans="1:8" ht="16.5">
+      <c r="I320" s="1"/>
+    </row>
+    <row r="321" spans="1:9" ht="16.5">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -55151,8 +55472,9 @@
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
-    </row>
-    <row r="322" spans="1:8" ht="16.5">
+      <c r="I321" s="1"/>
+    </row>
+    <row r="322" spans="1:9" ht="16.5">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -55161,8 +55483,9 @@
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
-    </row>
-    <row r="323" spans="1:8" ht="16.5">
+      <c r="I322" s="1"/>
+    </row>
+    <row r="323" spans="1:9" ht="16.5">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -55171,8 +55494,9 @@
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
-    </row>
-    <row r="324" spans="1:8" ht="16.5">
+      <c r="I323" s="1"/>
+    </row>
+    <row r="324" spans="1:9" ht="16.5">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -55181,8 +55505,9 @@
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
-    </row>
-    <row r="325" spans="1:8" ht="16.5">
+      <c r="I324" s="1"/>
+    </row>
+    <row r="325" spans="1:9" ht="16.5">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -55191,8 +55516,9 @@
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
-    </row>
-    <row r="326" spans="1:8" ht="16.5">
+      <c r="I325" s="1"/>
+    </row>
+    <row r="326" spans="1:9" ht="16.5">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -55201,8 +55527,9 @@
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
-    </row>
-    <row r="327" spans="1:8" ht="16.5">
+      <c r="I326" s="1"/>
+    </row>
+    <row r="327" spans="1:9" ht="16.5">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -55211,8 +55538,9 @@
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
-    </row>
-    <row r="328" spans="1:8" ht="16.5">
+      <c r="I327" s="1"/>
+    </row>
+    <row r="328" spans="1:9" ht="16.5">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -55221,8 +55549,9 @@
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
-    </row>
-    <row r="329" spans="1:8" ht="16.5">
+      <c r="I328" s="1"/>
+    </row>
+    <row r="329" spans="1:9" ht="16.5">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -55231,8 +55560,9 @@
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
-    </row>
-    <row r="330" spans="1:8" ht="16.5">
+      <c r="I329" s="1"/>
+    </row>
+    <row r="330" spans="1:9" ht="16.5">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -55241,8 +55571,9 @@
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
-    </row>
-    <row r="331" spans="1:8" ht="16.5">
+      <c r="I330" s="1"/>
+    </row>
+    <row r="331" spans="1:9" ht="16.5">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -55251,8 +55582,9 @@
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
-    </row>
-    <row r="332" spans="1:8" ht="16.5">
+      <c r="I331" s="1"/>
+    </row>
+    <row r="332" spans="1:9" ht="16.5">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -55261,8 +55593,9 @@
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
-    </row>
-    <row r="333" spans="1:8" ht="16.5">
+      <c r="I332" s="1"/>
+    </row>
+    <row r="333" spans="1:9" ht="16.5">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -55271,8 +55604,9 @@
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
-    </row>
-    <row r="334" spans="1:8" ht="16.5">
+      <c r="I333" s="1"/>
+    </row>
+    <row r="334" spans="1:9" ht="16.5">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -55281,8 +55615,9 @@
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
-    </row>
-    <row r="335" spans="1:8" ht="16.5">
+      <c r="I334" s="1"/>
+    </row>
+    <row r="335" spans="1:9" ht="16.5">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -55291,8 +55626,9 @@
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
-    </row>
-    <row r="336" spans="1:8" ht="16.5">
+      <c r="I335" s="1"/>
+    </row>
+    <row r="336" spans="1:9" ht="16.5">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -55301,8 +55637,9 @@
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
-    </row>
-    <row r="337" spans="1:8" ht="16.5">
+      <c r="I336" s="1"/>
+    </row>
+    <row r="337" spans="1:9" ht="16.5">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -55311,8 +55648,9 @@
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
-    </row>
-    <row r="338" spans="1:8" ht="16.5">
+      <c r="I337" s="1"/>
+    </row>
+    <row r="338" spans="1:9" ht="16.5">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -55321,8 +55659,9 @@
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
-    </row>
-    <row r="339" spans="1:8" ht="16.5">
+      <c r="I338" s="1"/>
+    </row>
+    <row r="339" spans="1:9" ht="16.5">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -55331,8 +55670,9 @@
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
-    </row>
-    <row r="340" spans="1:8" ht="16.5">
+      <c r="I339" s="1"/>
+    </row>
+    <row r="340" spans="1:9" ht="16.5">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -55341,8 +55681,9 @@
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
-    </row>
-    <row r="341" spans="1:8" ht="16.5">
+      <c r="I340" s="1"/>
+    </row>
+    <row r="341" spans="1:9" ht="16.5">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -55351,8 +55692,9 @@
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
-    </row>
-    <row r="342" spans="1:8" ht="16.5">
+      <c r="I341" s="1"/>
+    </row>
+    <row r="342" spans="1:9" ht="16.5">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -55361,8 +55703,9 @@
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
-    </row>
-    <row r="343" spans="1:8" ht="16.5">
+      <c r="I342" s="1"/>
+    </row>
+    <row r="343" spans="1:9" ht="16.5">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -55371,8 +55714,9 @@
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
-    </row>
-    <row r="344" spans="1:8" ht="16.5">
+      <c r="I343" s="1"/>
+    </row>
+    <row r="344" spans="1:9" ht="16.5">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -55381,106 +55725,107 @@
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
+      <c r="I344" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H54" xr:uid="{00000000-0009-0000-0000-000006000000}">
-    <filterColumn colId="5">
+  <autoFilter ref="A1:I54" xr:uid="{00000000-0009-0000-0000-000006000000}">
+    <filterColumn colId="6">
       <filters>
         <filter val="Tomeet"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H54">
-      <sortCondition ref="E1:E47"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I54">
+      <sortCondition ref="F1:F47"/>
     </sortState>
   </autoFilter>
   <mergeCells count="23">
-    <mergeCell ref="F51:F54"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="H17:H21"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="H42:H46"/>
-    <mergeCell ref="H51:H54"/>
-    <mergeCell ref="H47:H50"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="G51:G54"/>
+    <mergeCell ref="G47:G50"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="G42:G46"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="I17:I21"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="I42:I46"/>
+    <mergeCell ref="I51:I54"/>
+    <mergeCell ref="I47:I50"/>
+    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="I30:I33"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="G22" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="G23" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="G24" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
-    <hyperlink ref="G12" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
-    <hyperlink ref="G13" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
-    <hyperlink ref="G14" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
-    <hyperlink ref="G15" r:id="rId11" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
-    <hyperlink ref="G47" r:id="rId12" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
-    <hyperlink ref="G48" r:id="rId13" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
-    <hyperlink ref="G49" r:id="rId14" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
-    <hyperlink ref="G50" r:id="rId15" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
-    <hyperlink ref="G7" r:id="rId16" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
-    <hyperlink ref="G8" r:id="rId17" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
-    <hyperlink ref="G9" r:id="rId18" xr:uid="{00000000-0004-0000-0600-000011000000}"/>
-    <hyperlink ref="G10" r:id="rId19" xr:uid="{00000000-0004-0000-0600-000012000000}"/>
-    <hyperlink ref="G26" r:id="rId20" xr:uid="{00000000-0004-0000-0600-000013000000}"/>
-    <hyperlink ref="G27" r:id="rId21" xr:uid="{00000000-0004-0000-0600-000014000000}"/>
-    <hyperlink ref="G28" r:id="rId22" xr:uid="{00000000-0004-0000-0600-000015000000}"/>
-    <hyperlink ref="G29" r:id="rId23" xr:uid="{00000000-0004-0000-0600-000016000000}"/>
-    <hyperlink ref="G34" r:id="rId24" xr:uid="{00000000-0004-0000-0600-000017000000}"/>
-    <hyperlink ref="G35" r:id="rId25" xr:uid="{00000000-0004-0000-0600-000018000000}"/>
-    <hyperlink ref="G36" r:id="rId26" xr:uid="{00000000-0004-0000-0600-000019000000}"/>
-    <hyperlink ref="G37" r:id="rId27" xr:uid="{00000000-0004-0000-0600-00001A000000}"/>
-    <hyperlink ref="G51" r:id="rId28" xr:uid="{00000000-0004-0000-0600-00001B000000}"/>
-    <hyperlink ref="G52" r:id="rId29" xr:uid="{00000000-0004-0000-0600-00001C000000}"/>
-    <hyperlink ref="G53" r:id="rId30" xr:uid="{00000000-0004-0000-0600-00001D000000}"/>
-    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0600-00001E000000}"/>
-    <hyperlink ref="G18" r:id="rId32" xr:uid="{00000000-0004-0000-0600-00001F000000}"/>
-    <hyperlink ref="G19" r:id="rId33" xr:uid="{00000000-0004-0000-0600-000020000000}"/>
-    <hyperlink ref="G20" r:id="rId34" xr:uid="{00000000-0004-0000-0600-000021000000}"/>
-    <hyperlink ref="G30" r:id="rId35" xr:uid="{00000000-0004-0000-0600-000022000000}"/>
-    <hyperlink ref="G31" r:id="rId36" xr:uid="{00000000-0004-0000-0600-000023000000}"/>
-    <hyperlink ref="G32" r:id="rId37" xr:uid="{00000000-0004-0000-0600-000024000000}"/>
-    <hyperlink ref="G33" r:id="rId38" xr:uid="{00000000-0004-0000-0600-000025000000}"/>
-    <hyperlink ref="G38" r:id="rId39" xr:uid="{00000000-0004-0000-0600-000026000000}"/>
-    <hyperlink ref="G39" r:id="rId40" xr:uid="{00000000-0004-0000-0600-000027000000}"/>
-    <hyperlink ref="G40" r:id="rId41" xr:uid="{00000000-0004-0000-0600-000028000000}"/>
-    <hyperlink ref="G41" r:id="rId42" xr:uid="{00000000-0004-0000-0600-000029000000}"/>
-    <hyperlink ref="G42" r:id="rId43" xr:uid="{00000000-0004-0000-0600-00002A000000}"/>
-    <hyperlink ref="G43" r:id="rId44" xr:uid="{00000000-0004-0000-0600-00002B000000}"/>
-    <hyperlink ref="G44" r:id="rId45" xr:uid="{00000000-0004-0000-0600-00002C000000}"/>
-    <hyperlink ref="G45" r:id="rId46" xr:uid="{00000000-0004-0000-0600-00002D000000}"/>
-    <hyperlink ref="D54" r:id="rId47" xr:uid="{00000000-0004-0000-0600-00002E000000}"/>
-    <hyperlink ref="D25" r:id="rId48" xr:uid="{00000000-0004-0000-0600-00002F000000}"/>
-    <hyperlink ref="D6" r:id="rId49" xr:uid="{00000000-0004-0000-0600-000030000000}"/>
-    <hyperlink ref="D16" r:id="rId50" xr:uid="{00000000-0004-0000-0600-000031000000}"/>
-    <hyperlink ref="D21" r:id="rId51" xr:uid="{00000000-0004-0000-0600-000032000000}"/>
-    <hyperlink ref="D46" r:id="rId52" xr:uid="{00000000-0004-0000-0600-000033000000}"/>
-    <hyperlink ref="D11" r:id="rId53" xr:uid="{00000000-0004-0000-0600-000034000000}"/>
-    <hyperlink ref="G6" r:id="rId54" xr:uid="{00000000-0004-0000-0600-000035000000}"/>
-    <hyperlink ref="G11" r:id="rId55" xr:uid="{00000000-0004-0000-0600-000036000000}"/>
-    <hyperlink ref="G16" r:id="rId56" xr:uid="{00000000-0004-0000-0600-000037000000}"/>
-    <hyperlink ref="G21" r:id="rId57" xr:uid="{00000000-0004-0000-0600-000038000000}"/>
-    <hyperlink ref="G25" r:id="rId58" xr:uid="{00000000-0004-0000-0600-000039000000}"/>
-    <hyperlink ref="G46" r:id="rId59" xr:uid="{00000000-0004-0000-0600-00003A000000}"/>
-    <hyperlink ref="G54" r:id="rId60" xr:uid="{00000000-0004-0000-0600-00003B000000}"/>
-    <hyperlink ref="K3" r:id="rId61" xr:uid="{00000000-0004-0000-0600-00003C000000}"/>
-    <hyperlink ref="K4" r:id="rId62" xr:uid="{00000000-0004-0000-0600-00003D000000}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="H22" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="H23" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="H24" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="H12" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="H13" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="H14" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
+    <hyperlink ref="H15" r:id="rId11" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
+    <hyperlink ref="H47" r:id="rId12" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
+    <hyperlink ref="H48" r:id="rId13" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
+    <hyperlink ref="H49" r:id="rId14" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
+    <hyperlink ref="H50" r:id="rId15" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
+    <hyperlink ref="H7" r:id="rId16" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
+    <hyperlink ref="H8" r:id="rId17" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
+    <hyperlink ref="H9" r:id="rId18" xr:uid="{00000000-0004-0000-0600-000011000000}"/>
+    <hyperlink ref="H10" r:id="rId19" xr:uid="{00000000-0004-0000-0600-000012000000}"/>
+    <hyperlink ref="H26" r:id="rId20" xr:uid="{00000000-0004-0000-0600-000013000000}"/>
+    <hyperlink ref="H27" r:id="rId21" xr:uid="{00000000-0004-0000-0600-000014000000}"/>
+    <hyperlink ref="H28" r:id="rId22" xr:uid="{00000000-0004-0000-0600-000015000000}"/>
+    <hyperlink ref="H29" r:id="rId23" xr:uid="{00000000-0004-0000-0600-000016000000}"/>
+    <hyperlink ref="H34" r:id="rId24" xr:uid="{00000000-0004-0000-0600-000017000000}"/>
+    <hyperlink ref="H35" r:id="rId25" xr:uid="{00000000-0004-0000-0600-000018000000}"/>
+    <hyperlink ref="H36" r:id="rId26" xr:uid="{00000000-0004-0000-0600-000019000000}"/>
+    <hyperlink ref="H37" r:id="rId27" xr:uid="{00000000-0004-0000-0600-00001A000000}"/>
+    <hyperlink ref="H51" r:id="rId28" xr:uid="{00000000-0004-0000-0600-00001B000000}"/>
+    <hyperlink ref="H52" r:id="rId29" xr:uid="{00000000-0004-0000-0600-00001C000000}"/>
+    <hyperlink ref="H53" r:id="rId30" xr:uid="{00000000-0004-0000-0600-00001D000000}"/>
+    <hyperlink ref="H17" r:id="rId31" xr:uid="{00000000-0004-0000-0600-00001E000000}"/>
+    <hyperlink ref="H18" r:id="rId32" xr:uid="{00000000-0004-0000-0600-00001F000000}"/>
+    <hyperlink ref="H19" r:id="rId33" xr:uid="{00000000-0004-0000-0600-000020000000}"/>
+    <hyperlink ref="H20" r:id="rId34" xr:uid="{00000000-0004-0000-0600-000021000000}"/>
+    <hyperlink ref="H30" r:id="rId35" xr:uid="{00000000-0004-0000-0600-000022000000}"/>
+    <hyperlink ref="H31" r:id="rId36" xr:uid="{00000000-0004-0000-0600-000023000000}"/>
+    <hyperlink ref="H32" r:id="rId37" xr:uid="{00000000-0004-0000-0600-000024000000}"/>
+    <hyperlink ref="H33" r:id="rId38" xr:uid="{00000000-0004-0000-0600-000025000000}"/>
+    <hyperlink ref="H38" r:id="rId39" xr:uid="{00000000-0004-0000-0600-000026000000}"/>
+    <hyperlink ref="H39" r:id="rId40" xr:uid="{00000000-0004-0000-0600-000027000000}"/>
+    <hyperlink ref="H40" r:id="rId41" xr:uid="{00000000-0004-0000-0600-000028000000}"/>
+    <hyperlink ref="H41" r:id="rId42" xr:uid="{00000000-0004-0000-0600-000029000000}"/>
+    <hyperlink ref="H42" r:id="rId43" xr:uid="{00000000-0004-0000-0600-00002A000000}"/>
+    <hyperlink ref="H43" r:id="rId44" xr:uid="{00000000-0004-0000-0600-00002B000000}"/>
+    <hyperlink ref="H44" r:id="rId45" xr:uid="{00000000-0004-0000-0600-00002C000000}"/>
+    <hyperlink ref="H45" r:id="rId46" xr:uid="{00000000-0004-0000-0600-00002D000000}"/>
+    <hyperlink ref="E54" r:id="rId47" xr:uid="{00000000-0004-0000-0600-00002E000000}"/>
+    <hyperlink ref="E25" r:id="rId48" xr:uid="{00000000-0004-0000-0600-00002F000000}"/>
+    <hyperlink ref="E6" r:id="rId49" xr:uid="{00000000-0004-0000-0600-000030000000}"/>
+    <hyperlink ref="E16" r:id="rId50" xr:uid="{00000000-0004-0000-0600-000031000000}"/>
+    <hyperlink ref="E21" r:id="rId51" xr:uid="{00000000-0004-0000-0600-000032000000}"/>
+    <hyperlink ref="E46" r:id="rId52" xr:uid="{00000000-0004-0000-0600-000033000000}"/>
+    <hyperlink ref="E11" r:id="rId53" xr:uid="{00000000-0004-0000-0600-000034000000}"/>
+    <hyperlink ref="H6" r:id="rId54" xr:uid="{00000000-0004-0000-0600-000035000000}"/>
+    <hyperlink ref="H11" r:id="rId55" xr:uid="{00000000-0004-0000-0600-000036000000}"/>
+    <hyperlink ref="H16" r:id="rId56" xr:uid="{00000000-0004-0000-0600-000037000000}"/>
+    <hyperlink ref="H21" r:id="rId57" xr:uid="{00000000-0004-0000-0600-000038000000}"/>
+    <hyperlink ref="H25" r:id="rId58" xr:uid="{00000000-0004-0000-0600-000039000000}"/>
+    <hyperlink ref="H46" r:id="rId59" xr:uid="{00000000-0004-0000-0600-00003A000000}"/>
+    <hyperlink ref="H54" r:id="rId60" xr:uid="{00000000-0004-0000-0600-00003B000000}"/>
+    <hyperlink ref="L3" r:id="rId61" xr:uid="{00000000-0004-0000-0600-00003C000000}"/>
+    <hyperlink ref="L4" r:id="rId62" xr:uid="{00000000-0004-0000-0600-00003D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId63"/>
